--- a/published-data/fonds-solidarite/fds-2021-02-03/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2021-02-03/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
@@ -435,13 +435,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>26093</v>
+        <v>26155</v>
       </c>
       <c r="D2" t="n">
-        <v>8790</v>
+        <v>8796</v>
       </c>
       <c r="E2" t="n">
-        <v>40614476</v>
+        <v>40744103</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -486,13 +486,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" t="n">
         <v>3</v>
       </c>
       <c r="E3" t="n">
-        <v>44572</v>
+        <v>49331</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -588,13 +588,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>10664</v>
+        <v>10693</v>
       </c>
       <c r="D5" t="n">
-        <v>3633</v>
+        <v>3636</v>
       </c>
       <c r="E5" t="n">
-        <v>30592814</v>
+        <v>30772352</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -690,13 +690,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5885</v>
+        <v>5910</v>
       </c>
       <c r="D7" t="n">
-        <v>1901</v>
+        <v>1904</v>
       </c>
       <c r="E7" t="n">
-        <v>17092920</v>
+        <v>17205112</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -792,13 +792,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="D9" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E9" t="n">
-        <v>1711266</v>
+        <v>1718798</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -843,13 +843,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>17283</v>
+        <v>17356</v>
       </c>
       <c r="D10" t="n">
-        <v>5400</v>
+        <v>5416</v>
       </c>
       <c r="E10" t="n">
-        <v>27265031</v>
+        <v>27445714</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -1047,13 +1047,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5451</v>
+        <v>5471</v>
       </c>
       <c r="D14" t="n">
-        <v>1736</v>
+        <v>1739</v>
       </c>
       <c r="E14" t="n">
-        <v>14896387</v>
+        <v>14987145</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -1098,13 +1098,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D15" t="n">
         <v>6</v>
       </c>
       <c r="E15" t="n">
-        <v>88049</v>
+        <v>89549</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -1149,13 +1149,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2586</v>
+        <v>2595</v>
       </c>
       <c r="D16" t="n">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="E16" t="n">
-        <v>7635931</v>
+        <v>7693896</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1200,13 +1200,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="D17" t="n">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E17" t="n">
-        <v>1000160</v>
+        <v>1004085</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1251,13 +1251,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="D18" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E18" t="n">
-        <v>921283</v>
+        <v>935946</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1302,13 +1302,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>22407</v>
+        <v>22466</v>
       </c>
       <c r="D19" t="n">
-        <v>6711</v>
+        <v>6714</v>
       </c>
       <c r="E19" t="n">
-        <v>33717620</v>
+        <v>33846543</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1455,13 +1455,13 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="n">
-        <v>193572</v>
+        <v>195072</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1506,13 +1506,13 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>8136</v>
+        <v>8153</v>
       </c>
       <c r="D23" t="n">
-        <v>2448</v>
+        <v>2449</v>
       </c>
       <c r="E23" t="n">
-        <v>22712065</v>
+        <v>22830328</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1608,13 +1608,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2964</v>
+        <v>2979</v>
       </c>
       <c r="D25" t="n">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="E25" t="n">
-        <v>8470357</v>
+        <v>8526711</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1659,13 +1659,13 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D26" t="n">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E26" t="n">
-        <v>721573</v>
+        <v>732711</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1710,13 +1710,13 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="D27" t="n">
         <v>168</v>
       </c>
       <c r="E27" t="n">
-        <v>1316063</v>
+        <v>1333583</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1761,13 +1761,13 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>9867</v>
+        <v>9901</v>
       </c>
       <c r="D28" t="n">
-        <v>3329</v>
+        <v>3331</v>
       </c>
       <c r="E28" t="n">
-        <v>16518718</v>
+        <v>16609740</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1914,13 +1914,13 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2700</v>
+        <v>2713</v>
       </c>
       <c r="D31" t="n">
         <v>851</v>
       </c>
       <c r="E31" t="n">
-        <v>7467689</v>
+        <v>7538119</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -2016,13 +2016,13 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="D33" t="n">
         <v>316</v>
       </c>
       <c r="E33" t="n">
-        <v>2836106</v>
+        <v>2837606</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -2169,13 +2169,13 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D36" t="n">
         <v>71</v>
       </c>
       <c r="E36" t="n">
-        <v>573780</v>
+        <v>575005</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -2220,13 +2220,13 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>34224</v>
+        <v>34350</v>
       </c>
       <c r="D37" t="n">
-        <v>10464</v>
+        <v>10485</v>
       </c>
       <c r="E37" t="n">
-        <v>50714007</v>
+        <v>50966655</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -2424,13 +2424,13 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>12911</v>
+        <v>12968</v>
       </c>
       <c r="D41" t="n">
-        <v>3968</v>
+        <v>3974</v>
       </c>
       <c r="E41" t="n">
-        <v>36435957</v>
+        <v>36729759</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -2526,13 +2526,13 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>6727</v>
+        <v>6750</v>
       </c>
       <c r="D43" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="E43" t="n">
-        <v>18840049</v>
+        <v>18977417</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -2628,13 +2628,13 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="D45" t="n">
         <v>181</v>
       </c>
       <c r="E45" t="n">
-        <v>891508</v>
+        <v>916331</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -2679,13 +2679,13 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1276</v>
+        <v>1284</v>
       </c>
       <c r="D46" t="n">
         <v>309</v>
       </c>
       <c r="E46" t="n">
-        <v>2890521</v>
+        <v>2912159</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -2730,13 +2730,13 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>12576</v>
+        <v>12614</v>
       </c>
       <c r="D47" t="n">
-        <v>3949</v>
+        <v>3953</v>
       </c>
       <c r="E47" t="n">
-        <v>20226675</v>
+        <v>20352555</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -2832,13 +2832,13 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D49" t="n">
         <v>37</v>
       </c>
       <c r="E49" t="n">
-        <v>427448</v>
+        <v>437448</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -2883,13 +2883,13 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4525</v>
+        <v>4549</v>
       </c>
       <c r="D50" t="n">
-        <v>1393</v>
+        <v>1395</v>
       </c>
       <c r="E50" t="n">
-        <v>12515841</v>
+        <v>12639923</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -2985,13 +2985,13 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>1762</v>
+        <v>1778</v>
       </c>
       <c r="D52" t="n">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="E52" t="n">
-        <v>4771986</v>
+        <v>4809876</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -3036,13 +3036,13 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D53" t="n">
         <v>112</v>
       </c>
       <c r="E53" t="n">
-        <v>407950</v>
+        <v>412208</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -3087,13 +3087,13 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D54" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E54" t="n">
-        <v>981712</v>
+        <v>983212</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -3138,13 +3138,13 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>59441</v>
+        <v>59632</v>
       </c>
       <c r="D55" t="n">
-        <v>17849</v>
+        <v>17858</v>
       </c>
       <c r="E55" t="n">
-        <v>94823895</v>
+        <v>95288689</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -3240,13 +3240,13 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D57" t="n">
         <v>50</v>
       </c>
       <c r="E57" t="n">
-        <v>697484</v>
+        <v>701133</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -3393,13 +3393,13 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>24832</v>
+        <v>24938</v>
       </c>
       <c r="D60" t="n">
-        <v>7532</v>
+        <v>7539</v>
       </c>
       <c r="E60" t="n">
-        <v>84886862</v>
+        <v>85612445</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -3495,13 +3495,13 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>10377</v>
+        <v>10420</v>
       </c>
       <c r="D62" t="n">
-        <v>3134</v>
+        <v>3138</v>
       </c>
       <c r="E62" t="n">
-        <v>37749338</v>
+        <v>37993630</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -3546,13 +3546,13 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D63" t="n">
         <v>193</v>
       </c>
       <c r="E63" t="n">
-        <v>842257</v>
+        <v>845662</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -3648,13 +3648,13 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>747</v>
+        <v>754</v>
       </c>
       <c r="D65" t="n">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="E65" t="n">
-        <v>2566186</v>
+        <v>2616744</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -3699,13 +3699,13 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>71648</v>
+        <v>71802</v>
       </c>
       <c r="D66" t="n">
-        <v>22121</v>
+        <v>22132</v>
       </c>
       <c r="E66" t="n">
-        <v>107945303</v>
+        <v>108228311</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -3903,13 +3903,13 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D70" t="n">
         <v>46</v>
       </c>
       <c r="E70" t="n">
-        <v>543099</v>
+        <v>551328</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -3954,13 +3954,13 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>29949</v>
+        <v>30054</v>
       </c>
       <c r="D71" t="n">
-        <v>9292</v>
+        <v>9298</v>
       </c>
       <c r="E71" t="n">
-        <v>85739890</v>
+        <v>86376596</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -4056,13 +4056,13 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>16083</v>
+        <v>16141</v>
       </c>
       <c r="D73" t="n">
-        <v>4715</v>
+        <v>4723</v>
       </c>
       <c r="E73" t="n">
-        <v>44469287</v>
+        <v>44730621</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -4107,13 +4107,13 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D74" t="n">
         <v>3</v>
       </c>
       <c r="E74" t="n">
-        <v>15355</v>
+        <v>16655</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -4158,13 +4158,13 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="D75" t="n">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E75" t="n">
-        <v>923290</v>
+        <v>946561</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -4260,13 +4260,13 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>1775</v>
+        <v>1782</v>
       </c>
       <c r="D77" t="n">
         <v>491</v>
       </c>
       <c r="E77" t="n">
-        <v>4732453</v>
+        <v>4747077</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -4311,13 +4311,13 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>38294</v>
+        <v>38434</v>
       </c>
       <c r="D78" t="n">
-        <v>11625</v>
+        <v>11642</v>
       </c>
       <c r="E78" t="n">
-        <v>58758751</v>
+        <v>59084489</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -4413,13 +4413,13 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D80" t="n">
         <v>76</v>
       </c>
       <c r="E80" t="n">
-        <v>971762</v>
+        <v>994290</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -4464,13 +4464,13 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>14250</v>
+        <v>14305</v>
       </c>
       <c r="D81" t="n">
-        <v>4570</v>
+        <v>4580</v>
       </c>
       <c r="E81" t="n">
-        <v>39350580</v>
+        <v>39694228</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -4566,13 +4566,13 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>8457</v>
+        <v>8494</v>
       </c>
       <c r="D83" t="n">
-        <v>2621</v>
+        <v>2628</v>
       </c>
       <c r="E83" t="n">
-        <v>23037801</v>
+        <v>23246352</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -4617,13 +4617,13 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="D84" t="n">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E84" t="n">
-        <v>852980</v>
+        <v>870839</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -4668,13 +4668,13 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>1531</v>
+        <v>1534</v>
       </c>
       <c r="D85" t="n">
         <v>418</v>
       </c>
       <c r="E85" t="n">
-        <v>3520150</v>
+        <v>3536031</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -4719,13 +4719,13 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>34162</v>
+        <v>34239</v>
       </c>
       <c r="D86" t="n">
-        <v>10379</v>
+        <v>10385</v>
       </c>
       <c r="E86" t="n">
-        <v>51911128</v>
+        <v>52097455</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -4872,13 +4872,13 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D89" t="n">
         <v>38</v>
       </c>
       <c r="E89" t="n">
-        <v>529355</v>
+        <v>530525</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -4923,13 +4923,13 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>15645</v>
+        <v>15684</v>
       </c>
       <c r="D90" t="n">
-        <v>4681</v>
+        <v>4684</v>
       </c>
       <c r="E90" t="n">
-        <v>44959597</v>
+        <v>45142049</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -5025,13 +5025,13 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5858</v>
+        <v>5871</v>
       </c>
       <c r="D92" t="n">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="E92" t="n">
-        <v>17332335</v>
+        <v>17397470</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -5127,13 +5127,13 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D94" t="n">
         <v>143</v>
       </c>
       <c r="E94" t="n">
-        <v>587338</v>
+        <v>590338</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -5178,13 +5178,13 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>913</v>
+        <v>919</v>
       </c>
       <c r="D95" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E95" t="n">
-        <v>2076967</v>
+        <v>2091700</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -5229,13 +5229,13 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>129597</v>
+        <v>129928</v>
       </c>
       <c r="D96" t="n">
-        <v>36719</v>
+        <v>36742</v>
       </c>
       <c r="E96" t="n">
-        <v>199160607</v>
+        <v>199874830</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -5382,13 +5382,13 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D99" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E99" t="n">
-        <v>1177374</v>
+        <v>1182207</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
@@ -5484,13 +5484,13 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>50996</v>
+        <v>51158</v>
       </c>
       <c r="D101" t="n">
-        <v>15369</v>
+        <v>15388</v>
       </c>
       <c r="E101" t="n">
-        <v>142043359</v>
+        <v>142845483</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
@@ -5535,13 +5535,13 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D102" t="n">
         <v>27</v>
       </c>
       <c r="E102" t="n">
-        <v>318823</v>
+        <v>320323</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
@@ -5637,13 +5637,13 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>36394</v>
+        <v>36500</v>
       </c>
       <c r="D104" t="n">
-        <v>10265</v>
+        <v>10278</v>
       </c>
       <c r="E104" t="n">
-        <v>99415173</v>
+        <v>99866992</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -5739,13 +5739,13 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>966</v>
+        <v>971</v>
       </c>
       <c r="D106" t="n">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E106" t="n">
-        <v>1870871</v>
+        <v>1887627</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
@@ -5841,13 +5841,13 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>4067</v>
+        <v>4081</v>
       </c>
       <c r="D108" t="n">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="E108" t="n">
-        <v>9543054</v>
+        <v>9597081</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
@@ -5943,13 +5943,13 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>48679</v>
+        <v>48933</v>
       </c>
       <c r="D110" t="n">
-        <v>13521</v>
+        <v>13531</v>
       </c>
       <c r="E110" t="n">
-        <v>81411999</v>
+        <v>81985093</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
@@ -6045,13 +6045,13 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D112" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E112" t="n">
-        <v>159562</v>
+        <v>161646</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
@@ -6096,13 +6096,13 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D113" t="n">
         <v>72</v>
       </c>
       <c r="E113" t="n">
-        <v>1054312</v>
+        <v>1077312</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
@@ -6147,13 +6147,13 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>19634</v>
+        <v>19739</v>
       </c>
       <c r="D114" t="n">
-        <v>5663</v>
+        <v>5675</v>
       </c>
       <c r="E114" t="n">
-        <v>71834662</v>
+        <v>72476580</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
@@ -6198,13 +6198,13 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D115" t="n">
         <v>28</v>
       </c>
       <c r="E115" t="n">
-        <v>1059650</v>
+        <v>1069650</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -6249,13 +6249,13 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>6796</v>
+        <v>6833</v>
       </c>
       <c r="D116" t="n">
-        <v>1975</v>
+        <v>1980</v>
       </c>
       <c r="E116" t="n">
-        <v>27650740</v>
+        <v>27852837</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
@@ -6300,13 +6300,13 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="D117" t="n">
         <v>187</v>
       </c>
       <c r="E117" t="n">
-        <v>971452</v>
+        <v>974452</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
@@ -6402,13 +6402,13 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="D119" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E119" t="n">
-        <v>2423973</v>
+        <v>2443973</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
@@ -6453,13 +6453,13 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>24303</v>
+        <v>24369</v>
       </c>
       <c r="D120" t="n">
-        <v>7491</v>
+        <v>7497</v>
       </c>
       <c r="E120" t="n">
-        <v>36113141</v>
+        <v>36259713</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
@@ -6606,13 +6606,13 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>13098</v>
+        <v>13142</v>
       </c>
       <c r="D123" t="n">
-        <v>4012</v>
+        <v>4021</v>
       </c>
       <c r="E123" t="n">
-        <v>39015040</v>
+        <v>39254181</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
@@ -6708,13 +6708,13 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>4035</v>
+        <v>4054</v>
       </c>
       <c r="D125" t="n">
-        <v>1196</v>
+        <v>1198</v>
       </c>
       <c r="E125" t="n">
-        <v>11831141</v>
+        <v>11898723</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
@@ -6759,13 +6759,13 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="D126" t="n">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="E126" t="n">
-        <v>1064267</v>
+        <v>1071840</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
@@ -6810,13 +6810,13 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="D127" t="n">
         <v>194</v>
       </c>
       <c r="E127" t="n">
-        <v>1746425</v>
+        <v>1753182</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
@@ -6861,13 +6861,13 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>20864</v>
+        <v>20940</v>
       </c>
       <c r="D128" t="n">
-        <v>6437</v>
+        <v>6445</v>
       </c>
       <c r="E128" t="n">
-        <v>31704984</v>
+        <v>31861510</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
@@ -7065,13 +7065,13 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>10264</v>
+        <v>10311</v>
       </c>
       <c r="D132" t="n">
-        <v>3270</v>
+        <v>3275</v>
       </c>
       <c r="E132" t="n">
-        <v>29794075</v>
+        <v>30058456</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -7167,13 +7167,13 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>3553</v>
+        <v>3568</v>
       </c>
       <c r="D134" t="n">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="E134" t="n">
-        <v>10546921</v>
+        <v>10631731</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
@@ -7320,13 +7320,13 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="D137" t="n">
         <v>202</v>
       </c>
       <c r="E137" t="n">
-        <v>1879705</v>
+        <v>1881027</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
@@ -7371,13 +7371,13 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>9074</v>
+        <v>9100</v>
       </c>
       <c r="D138" t="n">
-        <v>2872</v>
+        <v>2875</v>
       </c>
       <c r="E138" t="n">
-        <v>13901602</v>
+        <v>13952071</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
@@ -7473,13 +7473,13 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D140" t="n">
         <v>11</v>
       </c>
       <c r="E140" t="n">
-        <v>139766</v>
+        <v>140432</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
@@ -7524,13 +7524,13 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>3209</v>
+        <v>3217</v>
       </c>
       <c r="D141" t="n">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="E141" t="n">
-        <v>8679477</v>
+        <v>8729552</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
@@ -7626,13 +7626,13 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>1115</v>
+        <v>1120</v>
       </c>
       <c r="D143" t="n">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="E143" t="n">
-        <v>3169723</v>
+        <v>3198774</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
@@ -7779,13 +7779,13 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>11741</v>
+        <v>11778</v>
       </c>
       <c r="D146" t="n">
-        <v>3643</v>
+        <v>3647</v>
       </c>
       <c r="E146" t="n">
-        <v>17831866</v>
+        <v>17951368</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
@@ -7881,13 +7881,13 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>4914</v>
+        <v>4931</v>
       </c>
       <c r="D148" t="n">
-        <v>1529</v>
+        <v>1531</v>
       </c>
       <c r="E148" t="n">
-        <v>14309296</v>
+        <v>14419676</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
@@ -7983,13 +7983,13 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>2446</v>
+        <v>2455</v>
       </c>
       <c r="D150" t="n">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="E150" t="n">
-        <v>7040645</v>
+        <v>7070696</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
@@ -8034,13 +8034,13 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D151" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E151" t="n">
-        <v>507657</v>
+        <v>509140</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
@@ -8136,13 +8136,13 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="D153" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E153" t="n">
-        <v>791256</v>
+        <v>827660</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
@@ -8187,13 +8187,13 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>8801</v>
+        <v>8817</v>
       </c>
       <c r="D154" t="n">
-        <v>2724</v>
+        <v>2725</v>
       </c>
       <c r="E154" t="n">
-        <v>14126597</v>
+        <v>14187119</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
@@ -8238,13 +8238,13 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D155" t="n">
         <v>27</v>
       </c>
       <c r="E155" t="n">
-        <v>288421</v>
+        <v>294421</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
@@ -8289,13 +8289,13 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>3289</v>
+        <v>3299</v>
       </c>
       <c r="D156" t="n">
         <v>1020</v>
       </c>
       <c r="E156" t="n">
-        <v>8992867</v>
+        <v>9059856</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
@@ -8391,13 +8391,13 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>1127</v>
+        <v>1129</v>
       </c>
       <c r="D158" t="n">
         <v>354</v>
       </c>
       <c r="E158" t="n">
-        <v>3135176</v>
+        <v>3138474</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
@@ -8493,13 +8493,13 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D160" t="n">
         <v>64</v>
       </c>
       <c r="E160" t="n">
-        <v>577787</v>
+        <v>579807</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
@@ -8544,13 +8544,13 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>25505</v>
+        <v>25595</v>
       </c>
       <c r="D161" t="n">
-        <v>7900</v>
+        <v>7908</v>
       </c>
       <c r="E161" t="n">
-        <v>40736895</v>
+        <v>40964057</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
@@ -8748,13 +8748,13 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>10837</v>
+        <v>10886</v>
       </c>
       <c r="D165" t="n">
-        <v>3375</v>
+        <v>3378</v>
       </c>
       <c r="E165" t="n">
-        <v>31764458</v>
+        <v>31987040</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
@@ -8850,13 +8850,13 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>3993</v>
+        <v>4013</v>
       </c>
       <c r="D167" t="n">
-        <v>1214</v>
+        <v>1216</v>
       </c>
       <c r="E167" t="n">
-        <v>12135137</v>
+        <v>12229819</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
@@ -8901,13 +8901,13 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>744</v>
+        <v>749</v>
       </c>
       <c r="D168" t="n">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E168" t="n">
-        <v>1456030</v>
+        <v>1472030</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
@@ -8952,13 +8952,13 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>841</v>
+        <v>847</v>
       </c>
       <c r="D169" t="n">
         <v>221</v>
       </c>
       <c r="E169" t="n">
-        <v>1993900</v>
+        <v>2029229</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
@@ -9003,13 +9003,13 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>4726</v>
+        <v>4733</v>
       </c>
       <c r="D170" t="n">
-        <v>1482</v>
+        <v>1485</v>
       </c>
       <c r="E170" t="n">
-        <v>7247872</v>
+        <v>7264006</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
@@ -9105,13 +9105,13 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>2516</v>
+        <v>2523</v>
       </c>
       <c r="D172" t="n">
         <v>799</v>
       </c>
       <c r="E172" t="n">
-        <v>7487863</v>
+        <v>7509711</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
@@ -9207,13 +9207,13 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="D174" t="n">
         <v>307</v>
       </c>
       <c r="E174" t="n">
-        <v>2558314</v>
+        <v>2568870</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
@@ -9309,13 +9309,13 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D176" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E176" t="n">
-        <v>232220</v>
+        <v>242220</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
@@ -9360,13 +9360,13 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>14119</v>
+        <v>14157</v>
       </c>
       <c r="D177" t="n">
-        <v>4375</v>
+        <v>4376</v>
       </c>
       <c r="E177" t="n">
-        <v>21754395</v>
+        <v>21833175</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
@@ -9462,13 +9462,13 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>5518</v>
+        <v>5541</v>
       </c>
       <c r="D179" t="n">
-        <v>1731</v>
+        <v>1733</v>
       </c>
       <c r="E179" t="n">
-        <v>15302635</v>
+        <v>15430029</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
@@ -9513,13 +9513,13 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>2711</v>
+        <v>2728</v>
       </c>
       <c r="D180" t="n">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="E180" t="n">
-        <v>7110449</v>
+        <v>7186232</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
@@ -9564,13 +9564,13 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D181" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E181" t="n">
-        <v>755694</v>
+        <v>764536</v>
       </c>
       <c r="F181" t="inlineStr">
         <is>
@@ -9615,13 +9615,13 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D182" t="n">
         <v>105</v>
       </c>
       <c r="E182" t="n">
-        <v>853649</v>
+        <v>854290</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
@@ -9666,13 +9666,13 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>25815</v>
+        <v>25900</v>
       </c>
       <c r="D183" t="n">
-        <v>8281</v>
+        <v>8293</v>
       </c>
       <c r="E183" t="n">
-        <v>41284303</v>
+        <v>41475483</v>
       </c>
       <c r="F183" t="inlineStr">
         <is>
@@ -9819,13 +9819,13 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="D186" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E186" t="n">
-        <v>1752482</v>
+        <v>1775590</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
@@ -9870,13 +9870,13 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>12986</v>
+        <v>13034</v>
       </c>
       <c r="D187" t="n">
-        <v>4053</v>
+        <v>4062</v>
       </c>
       <c r="E187" t="n">
-        <v>38717505</v>
+        <v>39019470</v>
       </c>
       <c r="F187" t="inlineStr">
         <is>
@@ -9972,13 +9972,13 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>2237</v>
+        <v>2251</v>
       </c>
       <c r="D189" t="n">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="E189" t="n">
-        <v>7272654</v>
+        <v>7337762</v>
       </c>
       <c r="F189" t="inlineStr">
         <is>
@@ -10074,13 +10074,13 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>827</v>
+        <v>831</v>
       </c>
       <c r="D191" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E191" t="n">
-        <v>1836536</v>
+        <v>1859706</v>
       </c>
       <c r="F191" t="inlineStr">
         <is>
@@ -10125,13 +10125,13 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>38854</v>
+        <v>38957</v>
       </c>
       <c r="D192" t="n">
-        <v>12898</v>
+        <v>12906</v>
       </c>
       <c r="E192" t="n">
-        <v>61905718</v>
+        <v>62220225</v>
       </c>
       <c r="F192" t="inlineStr">
         <is>
@@ -10278,13 +10278,13 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="D195" t="n">
         <v>191</v>
       </c>
       <c r="E195" t="n">
-        <v>2830460</v>
+        <v>2840460</v>
       </c>
       <c r="F195" t="inlineStr">
         <is>
@@ -10329,13 +10329,13 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>17801</v>
+        <v>17859</v>
       </c>
       <c r="D196" t="n">
-        <v>5506</v>
+        <v>5516</v>
       </c>
       <c r="E196" t="n">
-        <v>53620996</v>
+        <v>53939742</v>
       </c>
       <c r="F196" t="inlineStr">
         <is>
@@ -10431,13 +10431,13 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>4736</v>
+        <v>4753</v>
       </c>
       <c r="D198" t="n">
-        <v>1488</v>
+        <v>1490</v>
       </c>
       <c r="E198" t="n">
-        <v>15391653</v>
+        <v>15475707</v>
       </c>
       <c r="F198" t="inlineStr">
         <is>
@@ -10482,13 +10482,13 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="D199" t="n">
         <v>158</v>
       </c>
       <c r="E199" t="n">
-        <v>702963</v>
+        <v>708103</v>
       </c>
       <c r="F199" t="inlineStr">
         <is>
@@ -10533,13 +10533,13 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>1139</v>
+        <v>1141</v>
       </c>
       <c r="D200" t="n">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E200" t="n">
-        <v>2971673</v>
+        <v>2981876</v>
       </c>
       <c r="F200" t="inlineStr">
         <is>
@@ -10584,13 +10584,13 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>43850</v>
+        <v>43935</v>
       </c>
       <c r="D201" t="n">
-        <v>14046</v>
+        <v>14053</v>
       </c>
       <c r="E201" t="n">
-        <v>67411323</v>
+        <v>67652085</v>
       </c>
       <c r="F201" t="inlineStr">
         <is>
@@ -10737,13 +10737,13 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="D204" t="n">
         <v>128</v>
       </c>
       <c r="E204" t="n">
-        <v>1764464</v>
+        <v>1793502</v>
       </c>
       <c r="F204" t="inlineStr">
         <is>
@@ -10788,13 +10788,13 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>25268</v>
+        <v>25357</v>
       </c>
       <c r="D205" t="n">
-        <v>7940</v>
+        <v>7952</v>
       </c>
       <c r="E205" t="n">
-        <v>76647795</v>
+        <v>77189118</v>
       </c>
       <c r="F205" t="inlineStr">
         <is>
@@ -10890,13 +10890,13 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>4789</v>
+        <v>4818</v>
       </c>
       <c r="D207" t="n">
-        <v>1517</v>
+        <v>1521</v>
       </c>
       <c r="E207" t="n">
-        <v>14262170</v>
+        <v>14415608</v>
       </c>
       <c r="F207" t="inlineStr">
         <is>
@@ -10992,13 +10992,13 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="D209" t="n">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E209" t="n">
-        <v>889722</v>
+        <v>896402</v>
       </c>
       <c r="F209" t="inlineStr">
         <is>
@@ -11043,13 +11043,13 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>1506</v>
+        <v>1515</v>
       </c>
       <c r="D210" t="n">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="E210" t="n">
-        <v>3833558</v>
+        <v>3852370</v>
       </c>
       <c r="F210" t="inlineStr">
         <is>
@@ -11094,13 +11094,13 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>36659</v>
+        <v>36772</v>
       </c>
       <c r="D211" t="n">
-        <v>11797</v>
+        <v>11808</v>
       </c>
       <c r="E211" t="n">
-        <v>57412267</v>
+        <v>57677462</v>
       </c>
       <c r="F211" t="inlineStr">
         <is>
@@ -11247,13 +11247,13 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="D214" t="n">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E214" t="n">
-        <v>2423465</v>
+        <v>2444300</v>
       </c>
       <c r="F214" t="inlineStr">
         <is>
@@ -11349,13 +11349,13 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>18887</v>
+        <v>18946</v>
       </c>
       <c r="D216" t="n">
-        <v>5889</v>
+        <v>5898</v>
       </c>
       <c r="E216" t="n">
-        <v>56391558</v>
+        <v>56725400</v>
       </c>
       <c r="F216" t="inlineStr">
         <is>
@@ -11451,13 +11451,13 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>4494</v>
+        <v>4508</v>
       </c>
       <c r="D218" t="n">
-        <v>1412</v>
+        <v>1414</v>
       </c>
       <c r="E218" t="n">
-        <v>13976124</v>
+        <v>14071641</v>
       </c>
       <c r="F218" t="inlineStr">
         <is>
@@ -11502,13 +11502,13 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="D219" t="n">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E219" t="n">
-        <v>1111519</v>
+        <v>1120157</v>
       </c>
       <c r="F219" t="inlineStr">
         <is>
@@ -11553,13 +11553,13 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="D220" t="n">
         <v>259</v>
       </c>
       <c r="E220" t="n">
-        <v>2312781</v>
+        <v>2314686</v>
       </c>
       <c r="F220" t="inlineStr">
         <is>
@@ -11604,13 +11604,13 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>11927</v>
+        <v>11949</v>
       </c>
       <c r="D221" t="n">
         <v>3791</v>
       </c>
       <c r="E221" t="n">
-        <v>19185737</v>
+        <v>19258266</v>
       </c>
       <c r="F221" t="inlineStr">
         <is>
@@ -11706,13 +11706,13 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>4397</v>
+        <v>4412</v>
       </c>
       <c r="D223" t="n">
-        <v>1384</v>
+        <v>1386</v>
       </c>
       <c r="E223" t="n">
-        <v>11988955</v>
+        <v>12071718</v>
       </c>
       <c r="F223" t="inlineStr">
         <is>
@@ -11808,13 +11808,13 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>1692</v>
+        <v>1698</v>
       </c>
       <c r="D225" t="n">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E225" t="n">
-        <v>4756310</v>
+        <v>4799310</v>
       </c>
       <c r="F225" t="inlineStr">
         <is>
@@ -11859,13 +11859,13 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D226" t="n">
         <v>129</v>
       </c>
       <c r="E226" t="n">
-        <v>560577</v>
+        <v>589537</v>
       </c>
       <c r="F226" t="inlineStr">
         <is>
@@ -11910,13 +11910,13 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D227" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E227" t="n">
-        <v>514407</v>
+        <v>526389</v>
       </c>
       <c r="F227" t="inlineStr">
         <is>
@@ -11961,13 +11961,13 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>14939</v>
+        <v>14983</v>
       </c>
       <c r="D228" t="n">
-        <v>4726</v>
+        <v>4729</v>
       </c>
       <c r="E228" t="n">
-        <v>23711756</v>
+        <v>23815442</v>
       </c>
       <c r="F228" t="inlineStr">
         <is>
@@ -12114,13 +12114,13 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>6626</v>
+        <v>6645</v>
       </c>
       <c r="D231" t="n">
-        <v>2152</v>
+        <v>2154</v>
       </c>
       <c r="E231" t="n">
-        <v>17987560</v>
+        <v>18077190</v>
       </c>
       <c r="F231" t="inlineStr">
         <is>
@@ -12216,13 +12216,13 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>3528</v>
+        <v>3544</v>
       </c>
       <c r="D233" t="n">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="E233" t="n">
-        <v>8881075</v>
+        <v>8936906</v>
       </c>
       <c r="F233" t="inlineStr">
         <is>
@@ -12267,13 +12267,13 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D234" t="n">
         <v>53</v>
       </c>
       <c r="E234" t="n">
-        <v>241836</v>
+        <v>243336</v>
       </c>
       <c r="F234" t="inlineStr">
         <is>
@@ -12318,13 +12318,13 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D235" t="n">
         <v>94</v>
       </c>
       <c r="E235" t="n">
-        <v>604732</v>
+        <v>616974</v>
       </c>
       <c r="F235" t="inlineStr">
         <is>
@@ -12369,13 +12369,13 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>8772</v>
+        <v>8799</v>
       </c>
       <c r="D236" t="n">
-        <v>2668</v>
+        <v>2671</v>
       </c>
       <c r="E236" t="n">
-        <v>13769893</v>
+        <v>13816494</v>
       </c>
       <c r="F236" t="inlineStr">
         <is>
@@ -12471,13 +12471,13 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D238" t="n">
         <v>28</v>
       </c>
       <c r="E238" t="n">
-        <v>309768</v>
+        <v>319768</v>
       </c>
       <c r="F238" t="inlineStr">
         <is>
@@ -12522,13 +12522,13 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>3304</v>
+        <v>3315</v>
       </c>
       <c r="D239" t="n">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="E239" t="n">
-        <v>9194455</v>
+        <v>9264872</v>
       </c>
       <c r="F239" t="inlineStr">
         <is>
@@ -12624,13 +12624,13 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>1264</v>
+        <v>1268</v>
       </c>
       <c r="D241" t="n">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E241" t="n">
-        <v>3489303</v>
+        <v>3494387</v>
       </c>
       <c r="F241" t="inlineStr">
         <is>
@@ -12726,13 +12726,13 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="D243" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E243" t="n">
-        <v>750634</v>
+        <v>769708</v>
       </c>
       <c r="F243" t="inlineStr">
         <is>
@@ -12777,13 +12777,13 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>29380</v>
+        <v>29470</v>
       </c>
       <c r="D244" t="n">
-        <v>9093</v>
+        <v>9102</v>
       </c>
       <c r="E244" t="n">
-        <v>44324713</v>
+        <v>44549742</v>
       </c>
       <c r="F244" t="inlineStr">
         <is>
@@ -12981,13 +12981,13 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>13511</v>
+        <v>13549</v>
       </c>
       <c r="D248" t="n">
-        <v>4048</v>
+        <v>4050</v>
       </c>
       <c r="E248" t="n">
-        <v>38732503</v>
+        <v>38996434</v>
       </c>
       <c r="F248" t="inlineStr">
         <is>
@@ -13134,13 +13134,13 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>4453</v>
+        <v>4482</v>
       </c>
       <c r="D251" t="n">
-        <v>1352</v>
+        <v>1359</v>
       </c>
       <c r="E251" t="n">
-        <v>12777315</v>
+        <v>12910293</v>
       </c>
       <c r="F251" t="inlineStr">
         <is>
@@ -13185,13 +13185,13 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>807</v>
+        <v>814</v>
       </c>
       <c r="D252" t="n">
         <v>290</v>
       </c>
       <c r="E252" t="n">
-        <v>1765458</v>
+        <v>1791714</v>
       </c>
       <c r="F252" t="inlineStr">
         <is>
@@ -13287,13 +13287,13 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>938</v>
+        <v>943</v>
       </c>
       <c r="D254" t="n">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E254" t="n">
-        <v>2191172</v>
+        <v>2219401</v>
       </c>
       <c r="F254" t="inlineStr">
         <is>
@@ -13389,13 +13389,13 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>25313</v>
+        <v>25396</v>
       </c>
       <c r="D256" t="n">
-        <v>7938</v>
+        <v>7949</v>
       </c>
       <c r="E256" t="n">
-        <v>38764996</v>
+        <v>38950964</v>
       </c>
       <c r="F256" t="inlineStr">
         <is>
@@ -13542,13 +13542,13 @@
         </is>
       </c>
       <c r="C259" t="n">
-        <v>11775</v>
+        <v>11826</v>
       </c>
       <c r="D259" t="n">
-        <v>3721</v>
+        <v>3724</v>
       </c>
       <c r="E259" t="n">
-        <v>33533485</v>
+        <v>33834028</v>
       </c>
       <c r="F259" t="inlineStr">
         <is>
@@ -13644,13 +13644,13 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>5579</v>
+        <v>5610</v>
       </c>
       <c r="D261" t="n">
-        <v>1671</v>
+        <v>1675</v>
       </c>
       <c r="E261" t="n">
-        <v>15094823</v>
+        <v>15203749</v>
       </c>
       <c r="F261" t="inlineStr">
         <is>
@@ -13695,13 +13695,13 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D262" t="n">
         <v>85</v>
       </c>
       <c r="E262" t="n">
-        <v>349089</v>
+        <v>350589</v>
       </c>
       <c r="F262" t="inlineStr">
         <is>
@@ -13797,13 +13797,13 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>14283</v>
+        <v>14306</v>
       </c>
       <c r="D264" t="n">
-        <v>4470</v>
+        <v>4471</v>
       </c>
       <c r="E264" t="n">
-        <v>22930168</v>
+        <v>22996934</v>
       </c>
       <c r="F264" t="inlineStr">
         <is>
@@ -13899,13 +13899,13 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D266" t="n">
         <v>30</v>
       </c>
       <c r="E266" t="n">
-        <v>368304</v>
+        <v>385447</v>
       </c>
       <c r="F266" t="inlineStr">
         <is>
@@ -13950,13 +13950,13 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>6358</v>
+        <v>6381</v>
       </c>
       <c r="D267" t="n">
-        <v>2040</v>
+        <v>2042</v>
       </c>
       <c r="E267" t="n">
-        <v>17437404</v>
+        <v>17547666</v>
       </c>
       <c r="F267" t="inlineStr">
         <is>
@@ -14052,13 +14052,13 @@
         </is>
       </c>
       <c r="C269" t="n">
-        <v>2165</v>
+        <v>2173</v>
       </c>
       <c r="D269" t="n">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="E269" t="n">
-        <v>6247969</v>
+        <v>6288912</v>
       </c>
       <c r="F269" t="inlineStr">
         <is>
@@ -14103,13 +14103,13 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D270" t="n">
         <v>129</v>
       </c>
       <c r="E270" t="n">
-        <v>580464</v>
+        <v>581384</v>
       </c>
       <c r="F270" t="inlineStr">
         <is>
@@ -14154,13 +14154,13 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D271" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E271" t="n">
-        <v>1007001</v>
+        <v>1011781</v>
       </c>
       <c r="F271" t="inlineStr">
         <is>
@@ -14205,13 +14205,13 @@
         </is>
       </c>
       <c r="C272" t="n">
-        <v>14294</v>
+        <v>14350</v>
       </c>
       <c r="D272" t="n">
-        <v>4392</v>
+        <v>4395</v>
       </c>
       <c r="E272" t="n">
-        <v>24044758</v>
+        <v>24184247</v>
       </c>
       <c r="F272" t="inlineStr">
         <is>
@@ -14409,13 +14409,13 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>7034</v>
+        <v>7086</v>
       </c>
       <c r="D276" t="n">
-        <v>2139</v>
+        <v>2143</v>
       </c>
       <c r="E276" t="n">
-        <v>24946790</v>
+        <v>25252029</v>
       </c>
       <c r="F276" t="inlineStr">
         <is>
@@ -14511,13 +14511,13 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>4395</v>
+        <v>4411</v>
       </c>
       <c r="D278" t="n">
-        <v>1311</v>
+        <v>1316</v>
       </c>
       <c r="E278" t="n">
-        <v>14006723</v>
+        <v>14088469</v>
       </c>
       <c r="F278" t="inlineStr">
         <is>
@@ -14562,13 +14562,13 @@
         </is>
       </c>
       <c r="C279" t="n">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D279" t="n">
         <v>113</v>
       </c>
       <c r="E279" t="n">
-        <v>721570</v>
+        <v>723070</v>
       </c>
       <c r="F279" t="inlineStr">
         <is>
@@ -14613,13 +14613,13 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D280" t="n">
         <v>54</v>
       </c>
       <c r="E280" t="n">
-        <v>514802</v>
+        <v>524802</v>
       </c>
       <c r="F280" t="inlineStr">
         <is>
@@ -14664,13 +14664,13 @@
         </is>
       </c>
       <c r="C281" t="n">
-        <v>17267</v>
+        <v>17331</v>
       </c>
       <c r="D281" t="n">
         <v>4813</v>
       </c>
       <c r="E281" t="n">
-        <v>28270979</v>
+        <v>28422806</v>
       </c>
       <c r="F281" t="inlineStr">
         <is>
@@ -14817,13 +14817,13 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D284" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E284" t="n">
-        <v>146973</v>
+        <v>159637</v>
       </c>
       <c r="F284" t="inlineStr">
         <is>
@@ -14868,13 +14868,13 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>6880</v>
+        <v>6916</v>
       </c>
       <c r="D285" t="n">
-        <v>1863</v>
+        <v>1866</v>
       </c>
       <c r="E285" t="n">
-        <v>22413415</v>
+        <v>22596610</v>
       </c>
       <c r="F285" t="inlineStr">
         <is>
@@ -14970,13 +14970,13 @@
         </is>
       </c>
       <c r="C287" t="n">
-        <v>4857</v>
+        <v>4881</v>
       </c>
       <c r="D287" t="n">
-        <v>1341</v>
+        <v>1345</v>
       </c>
       <c r="E287" t="n">
-        <v>14303177</v>
+        <v>14414971</v>
       </c>
       <c r="F287" t="inlineStr">
         <is>
@@ -15021,13 +15021,13 @@
         </is>
       </c>
       <c r="C288" t="n">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D288" t="n">
         <v>128</v>
       </c>
       <c r="E288" t="n">
-        <v>752230</v>
+        <v>753830</v>
       </c>
       <c r="F288" t="inlineStr">
         <is>
@@ -15072,13 +15072,13 @@
         </is>
       </c>
       <c r="C289" t="n">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D289" t="n">
         <v>81</v>
       </c>
       <c r="E289" t="n">
-        <v>708884</v>
+        <v>719981</v>
       </c>
       <c r="F289" t="inlineStr">
         <is>
@@ -15123,13 +15123,13 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>10580</v>
+        <v>10606</v>
       </c>
       <c r="D290" t="n">
-        <v>3256</v>
+        <v>3258</v>
       </c>
       <c r="E290" t="n">
-        <v>16674393</v>
+        <v>16744043</v>
       </c>
       <c r="F290" t="inlineStr">
         <is>
@@ -15327,13 +15327,13 @@
         </is>
       </c>
       <c r="C294" t="n">
-        <v>3756</v>
+        <v>3763</v>
       </c>
       <c r="D294" t="n">
         <v>1193</v>
       </c>
       <c r="E294" t="n">
-        <v>10135947</v>
+        <v>10177161</v>
       </c>
       <c r="F294" t="inlineStr">
         <is>
@@ -15429,13 +15429,13 @@
         </is>
       </c>
       <c r="C296" t="n">
-        <v>1352</v>
+        <v>1354</v>
       </c>
       <c r="D296" t="n">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E296" t="n">
-        <v>3831032</v>
+        <v>3834032</v>
       </c>
       <c r="F296" t="inlineStr">
         <is>
@@ -15531,13 +15531,13 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D298" t="n">
         <v>70</v>
       </c>
       <c r="E298" t="n">
-        <v>536476</v>
+        <v>540498</v>
       </c>
       <c r="F298" t="inlineStr">
         <is>
@@ -15582,13 +15582,13 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>12774</v>
+        <v>12849</v>
       </c>
       <c r="D299" t="n">
-        <v>4136</v>
+        <v>4161</v>
       </c>
       <c r="E299" t="n">
-        <v>23093406</v>
+        <v>23386030</v>
       </c>
       <c r="F299" t="inlineStr">
         <is>
@@ -15786,13 +15786,13 @@
         </is>
       </c>
       <c r="C303" t="n">
-        <v>5394</v>
+        <v>5424</v>
       </c>
       <c r="D303" t="n">
-        <v>1753</v>
+        <v>1758</v>
       </c>
       <c r="E303" t="n">
-        <v>14986587</v>
+        <v>15150939</v>
       </c>
       <c r="F303" t="inlineStr">
         <is>
@@ -15837,13 +15837,13 @@
         </is>
       </c>
       <c r="C304" t="n">
-        <v>2322</v>
+        <v>2327</v>
       </c>
       <c r="D304" t="n">
         <v>701</v>
       </c>
       <c r="E304" t="n">
-        <v>6460861</v>
+        <v>6495843</v>
       </c>
       <c r="F304" t="inlineStr">
         <is>
@@ -15939,13 +15939,13 @@
         </is>
       </c>
       <c r="C306" t="n">
-        <v>1128</v>
+        <v>1162</v>
       </c>
       <c r="D306" t="n">
-        <v>793</v>
+        <v>818</v>
       </c>
       <c r="E306" t="n">
-        <v>6254384</v>
+        <v>6516335</v>
       </c>
       <c r="F306" t="inlineStr">
         <is>
@@ -15990,13 +15990,13 @@
         </is>
       </c>
       <c r="C307" t="n">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="D307" t="n">
         <v>86</v>
       </c>
       <c r="E307" t="n">
-        <v>705896</v>
+        <v>710536</v>
       </c>
       <c r="F307" t="inlineStr">
         <is>
@@ -16041,13 +16041,13 @@
         </is>
       </c>
       <c r="C308" t="n">
-        <v>49962</v>
+        <v>50221</v>
       </c>
       <c r="D308" t="n">
-        <v>15325</v>
+        <v>15348</v>
       </c>
       <c r="E308" t="n">
-        <v>74795747</v>
+        <v>75254783</v>
       </c>
       <c r="F308" t="inlineStr">
         <is>
@@ -16347,13 +16347,13 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>27850</v>
+        <v>27971</v>
       </c>
       <c r="D314" t="n">
-        <v>8701</v>
+        <v>8719</v>
       </c>
       <c r="E314" t="n">
-        <v>79994827</v>
+        <v>80549227</v>
       </c>
       <c r="F314" t="inlineStr">
         <is>
@@ -16449,13 +16449,13 @@
         </is>
       </c>
       <c r="C316" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D316" t="n">
         <v>6</v>
       </c>
       <c r="E316" t="n">
-        <v>66507</v>
+        <v>77173</v>
       </c>
       <c r="F316" t="inlineStr">
         <is>
@@ -16500,13 +16500,13 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>13684</v>
+        <v>13763</v>
       </c>
       <c r="D317" t="n">
-        <v>4255</v>
+        <v>4272</v>
       </c>
       <c r="E317" t="n">
-        <v>40067632</v>
+        <v>40389446</v>
       </c>
       <c r="F317" t="inlineStr">
         <is>
@@ -16602,13 +16602,13 @@
         </is>
       </c>
       <c r="C319" t="n">
-        <v>1706</v>
+        <v>1730</v>
       </c>
       <c r="D319" t="n">
-        <v>731</v>
+        <v>737</v>
       </c>
       <c r="E319" t="n">
-        <v>5620634</v>
+        <v>5735612</v>
       </c>
       <c r="F319" t="inlineStr">
         <is>
@@ -16653,13 +16653,13 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>1595</v>
+        <v>1602</v>
       </c>
       <c r="D320" t="n">
         <v>377</v>
       </c>
       <c r="E320" t="n">
-        <v>3964376</v>
+        <v>4003463</v>
       </c>
       <c r="F320" t="inlineStr">
         <is>
@@ -16704,13 +16704,13 @@
         </is>
       </c>
       <c r="C321" t="n">
-        <v>5991</v>
+        <v>6024</v>
       </c>
       <c r="D321" t="n">
-        <v>1855</v>
+        <v>1858</v>
       </c>
       <c r="E321" t="n">
-        <v>9186392</v>
+        <v>9257180</v>
       </c>
       <c r="F321" t="inlineStr">
         <is>
@@ -16806,13 +16806,13 @@
         </is>
       </c>
       <c r="C323" t="n">
-        <v>2435</v>
+        <v>2444</v>
       </c>
       <c r="D323" t="n">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="E323" t="n">
-        <v>6766988</v>
+        <v>6802377</v>
       </c>
       <c r="F323" t="inlineStr">
         <is>
@@ -16857,13 +16857,13 @@
         </is>
       </c>
       <c r="C324" t="n">
-        <v>998</v>
+        <v>1003</v>
       </c>
       <c r="D324" t="n">
         <v>315</v>
       </c>
       <c r="E324" t="n">
-        <v>2677667</v>
+        <v>2697047</v>
       </c>
       <c r="F324" t="inlineStr">
         <is>
@@ -16908,13 +16908,13 @@
         </is>
       </c>
       <c r="C325" t="n">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D325" t="n">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E325" t="n">
-        <v>228581</v>
+        <v>234581</v>
       </c>
       <c r="F325" t="inlineStr">
         <is>
@@ -16959,13 +16959,13 @@
         </is>
       </c>
       <c r="C326" t="n">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D326" t="n">
         <v>56</v>
       </c>
       <c r="E326" t="n">
-        <v>368968</v>
+        <v>371518</v>
       </c>
       <c r="F326" t="inlineStr">
         <is>
@@ -17010,13 +17010,13 @@
         </is>
       </c>
       <c r="C327" t="n">
-        <v>29089</v>
+        <v>29159</v>
       </c>
       <c r="D327" t="n">
-        <v>9084</v>
+        <v>9090</v>
       </c>
       <c r="E327" t="n">
-        <v>43938204</v>
+        <v>44092285</v>
       </c>
       <c r="F327" t="inlineStr">
         <is>
@@ -17214,13 +17214,13 @@
         </is>
       </c>
       <c r="C331" t="n">
-        <v>16554</v>
+        <v>16612</v>
       </c>
       <c r="D331" t="n">
-        <v>5123</v>
+        <v>5132</v>
       </c>
       <c r="E331" t="n">
-        <v>49788454</v>
+        <v>50077658</v>
       </c>
       <c r="F331" t="inlineStr">
         <is>
@@ -17367,13 +17367,13 @@
         </is>
       </c>
       <c r="C334" t="n">
-        <v>8101</v>
+        <v>8123</v>
       </c>
       <c r="D334" t="n">
-        <v>2495</v>
+        <v>2498</v>
       </c>
       <c r="E334" t="n">
-        <v>23341312</v>
+        <v>23464744</v>
       </c>
       <c r="F334" t="inlineStr">
         <is>
@@ -17418,13 +17418,13 @@
         </is>
       </c>
       <c r="C335" t="n">
-        <v>1136</v>
+        <v>1142</v>
       </c>
       <c r="D335" t="n">
         <v>492</v>
       </c>
       <c r="E335" t="n">
-        <v>3678967</v>
+        <v>3724049</v>
       </c>
       <c r="F335" t="inlineStr">
         <is>
@@ -17469,13 +17469,13 @@
         </is>
       </c>
       <c r="C336" t="n">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="D336" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E336" t="n">
-        <v>1817785</v>
+        <v>1827353</v>
       </c>
       <c r="F336" t="inlineStr">
         <is>
@@ -17520,13 +17520,13 @@
         </is>
       </c>
       <c r="C337" t="n">
-        <v>26584</v>
+        <v>26723</v>
       </c>
       <c r="D337" t="n">
-        <v>9285</v>
+        <v>9327</v>
       </c>
       <c r="E337" t="n">
-        <v>53937384</v>
+        <v>54425201</v>
       </c>
       <c r="F337" t="inlineStr">
         <is>
@@ -17571,13 +17571,13 @@
         </is>
       </c>
       <c r="C338" t="n">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D338" t="n">
         <v>60</v>
       </c>
       <c r="E338" t="n">
-        <v>543095</v>
+        <v>546095</v>
       </c>
       <c r="F338" t="inlineStr">
         <is>
@@ -17673,13 +17673,13 @@
         </is>
       </c>
       <c r="C340" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D340" t="n">
         <v>76</v>
       </c>
       <c r="E340" t="n">
-        <v>786481</v>
+        <v>796481</v>
       </c>
       <c r="F340" t="inlineStr">
         <is>
@@ -17724,13 +17724,13 @@
         </is>
       </c>
       <c r="C341" t="n">
-        <v>11623</v>
+        <v>11693</v>
       </c>
       <c r="D341" t="n">
-        <v>3755</v>
+        <v>3768</v>
       </c>
       <c r="E341" t="n">
-        <v>34235489</v>
+        <v>34551465</v>
       </c>
       <c r="F341" t="inlineStr">
         <is>
@@ -17826,13 +17826,13 @@
         </is>
       </c>
       <c r="C343" t="n">
-        <v>4760</v>
+        <v>4788</v>
       </c>
       <c r="D343" t="n">
-        <v>1448</v>
+        <v>1455</v>
       </c>
       <c r="E343" t="n">
-        <v>15273536</v>
+        <v>15370264</v>
       </c>
       <c r="F343" t="inlineStr">
         <is>
@@ -17928,13 +17928,13 @@
         </is>
       </c>
       <c r="C345" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D345" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E345" t="n">
-        <v>594214</v>
+        <v>604214</v>
       </c>
       <c r="F345" t="inlineStr">
         <is>
@@ -17979,13 +17979,13 @@
         </is>
       </c>
       <c r="C346" t="n">
-        <v>4427</v>
+        <v>4532</v>
       </c>
       <c r="D346" t="n">
-        <v>2766</v>
+        <v>2833</v>
       </c>
       <c r="E346" t="n">
-        <v>20572168</v>
+        <v>21131272</v>
       </c>
       <c r="F346" t="inlineStr">
         <is>
@@ -18030,13 +18030,13 @@
         </is>
       </c>
       <c r="C347" t="n">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="D347" t="n">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E347" t="n">
-        <v>1186541</v>
+        <v>1207588</v>
       </c>
       <c r="F347" t="inlineStr">
         <is>
@@ -18081,13 +18081,13 @@
         </is>
       </c>
       <c r="C348" t="n">
-        <v>27834</v>
+        <v>27924</v>
       </c>
       <c r="D348" t="n">
-        <v>8510</v>
+        <v>8513</v>
       </c>
       <c r="E348" t="n">
-        <v>41798626</v>
+        <v>41985687</v>
       </c>
       <c r="F348" t="inlineStr">
         <is>
@@ -18234,13 +18234,13 @@
         </is>
       </c>
       <c r="C351" t="n">
-        <v>11662</v>
+        <v>11693</v>
       </c>
       <c r="D351" t="n">
-        <v>3693</v>
+        <v>3696</v>
       </c>
       <c r="E351" t="n">
-        <v>32184657</v>
+        <v>32357726</v>
       </c>
       <c r="F351" t="inlineStr">
         <is>
@@ -18336,13 +18336,13 @@
         </is>
       </c>
       <c r="C353" t="n">
-        <v>4906</v>
+        <v>4917</v>
       </c>
       <c r="D353" t="n">
-        <v>1513</v>
+        <v>1515</v>
       </c>
       <c r="E353" t="n">
-        <v>14716501</v>
+        <v>14775810</v>
       </c>
       <c r="F353" t="inlineStr">
         <is>
@@ -18438,13 +18438,13 @@
         </is>
       </c>
       <c r="C355" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D355" t="n">
         <v>94</v>
       </c>
       <c r="E355" t="n">
-        <v>384221</v>
+        <v>394221</v>
       </c>
       <c r="F355" t="inlineStr">
         <is>
@@ -18489,13 +18489,13 @@
         </is>
       </c>
       <c r="C356" t="n">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="D356" t="n">
         <v>211</v>
       </c>
       <c r="E356" t="n">
-        <v>1836081</v>
+        <v>1848827</v>
       </c>
       <c r="F356" t="inlineStr">
         <is>
@@ -18540,13 +18540,13 @@
         </is>
       </c>
       <c r="C357" t="n">
-        <v>6366</v>
+        <v>6382</v>
       </c>
       <c r="D357" t="n">
-        <v>1992</v>
+        <v>1994</v>
       </c>
       <c r="E357" t="n">
-        <v>10309044</v>
+        <v>10348072</v>
       </c>
       <c r="F357" t="inlineStr">
         <is>
@@ -18591,13 +18591,13 @@
         </is>
       </c>
       <c r="C358" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D358" t="n">
         <v>4</v>
       </c>
       <c r="E358" t="n">
-        <v>52188</v>
+        <v>62188</v>
       </c>
       <c r="F358" t="inlineStr">
         <is>
@@ -18693,13 +18693,13 @@
         </is>
       </c>
       <c r="C360" t="n">
-        <v>2222</v>
+        <v>2233</v>
       </c>
       <c r="D360" t="n">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="E360" t="n">
-        <v>6329469</v>
+        <v>6372026</v>
       </c>
       <c r="F360" t="inlineStr">
         <is>
@@ -18744,13 +18744,13 @@
         </is>
       </c>
       <c r="C361" t="n">
-        <v>948</v>
+        <v>953</v>
       </c>
       <c r="D361" t="n">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E361" t="n">
-        <v>2598182</v>
+        <v>2630695</v>
       </c>
       <c r="F361" t="inlineStr">
         <is>
@@ -18846,13 +18846,13 @@
         </is>
       </c>
       <c r="C363" t="n">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D363" t="n">
         <v>40</v>
       </c>
       <c r="E363" t="n">
-        <v>485862</v>
+        <v>495862</v>
       </c>
       <c r="F363" t="inlineStr">
         <is>
@@ -18897,13 +18897,13 @@
         </is>
       </c>
       <c r="C364" t="n">
-        <v>33581</v>
+        <v>33660</v>
       </c>
       <c r="D364" t="n">
-        <v>10472</v>
+        <v>10478</v>
       </c>
       <c r="E364" t="n">
-        <v>51138609</v>
+        <v>51274893</v>
       </c>
       <c r="F364" t="inlineStr">
         <is>
@@ -19050,13 +19050,13 @@
         </is>
       </c>
       <c r="C367" t="n">
-        <v>15238</v>
+        <v>15299</v>
       </c>
       <c r="D367" t="n">
-        <v>4893</v>
+        <v>4901</v>
       </c>
       <c r="E367" t="n">
-        <v>44360866</v>
+        <v>44694523</v>
       </c>
       <c r="F367" t="inlineStr">
         <is>
@@ -19152,13 +19152,13 @@
         </is>
       </c>
       <c r="C369" t="n">
-        <v>10059</v>
+        <v>10097</v>
       </c>
       <c r="D369" t="n">
-        <v>3092</v>
+        <v>3096</v>
       </c>
       <c r="E369" t="n">
-        <v>26645814</v>
+        <v>26820963</v>
       </c>
       <c r="F369" t="inlineStr">
         <is>
@@ -19203,13 +19203,13 @@
         </is>
       </c>
       <c r="C370" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D370" t="n">
         <v>109</v>
       </c>
       <c r="E370" t="n">
-        <v>391588</v>
+        <v>393088</v>
       </c>
       <c r="F370" t="inlineStr">
         <is>
@@ -19254,13 +19254,13 @@
         </is>
       </c>
       <c r="C371" t="n">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="D371" t="n">
         <v>178</v>
       </c>
       <c r="E371" t="n">
-        <v>1768187</v>
+        <v>1779518</v>
       </c>
       <c r="F371" t="inlineStr">
         <is>
@@ -19305,13 +19305,13 @@
         </is>
       </c>
       <c r="C372" t="n">
-        <v>17144</v>
+        <v>17209</v>
       </c>
       <c r="D372" t="n">
-        <v>5176</v>
+        <v>5180</v>
       </c>
       <c r="E372" t="n">
-        <v>26320428</v>
+        <v>26443061</v>
       </c>
       <c r="F372" t="inlineStr">
         <is>
@@ -19509,13 +19509,13 @@
         </is>
       </c>
       <c r="C376" t="n">
-        <v>8579</v>
+        <v>8614</v>
       </c>
       <c r="D376" t="n">
-        <v>2660</v>
+        <v>2665</v>
       </c>
       <c r="E376" t="n">
-        <v>23468728</v>
+        <v>23633640</v>
       </c>
       <c r="F376" t="inlineStr">
         <is>
@@ -19560,13 +19560,13 @@
         </is>
       </c>
       <c r="C377" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D377" t="n">
         <v>12</v>
       </c>
       <c r="E377" t="n">
-        <v>303271</v>
+        <v>304771</v>
       </c>
       <c r="F377" t="inlineStr">
         <is>
@@ -19611,13 +19611,13 @@
         </is>
       </c>
       <c r="C378" t="n">
-        <v>3158</v>
+        <v>3174</v>
       </c>
       <c r="D378" t="n">
-        <v>957</v>
+        <v>961</v>
       </c>
       <c r="E378" t="n">
-        <v>8956091</v>
+        <v>9003536</v>
       </c>
       <c r="F378" t="inlineStr">
         <is>
@@ -19662,13 +19662,13 @@
         </is>
       </c>
       <c r="C379" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D379" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E379" t="n">
-        <v>304648</v>
+        <v>323686</v>
       </c>
       <c r="F379" t="inlineStr">
         <is>
@@ -19764,13 +19764,13 @@
         </is>
       </c>
       <c r="C381" t="n">
-        <v>47046</v>
+        <v>47192</v>
       </c>
       <c r="D381" t="n">
-        <v>11939</v>
+        <v>11943</v>
       </c>
       <c r="E381" t="n">
-        <v>71847263</v>
+        <v>72192915</v>
       </c>
       <c r="F381" t="inlineStr">
         <is>
@@ -19917,13 +19917,13 @@
         </is>
       </c>
       <c r="C384" t="n">
-        <v>11295</v>
+        <v>11320</v>
       </c>
       <c r="D384" t="n">
         <v>3157</v>
       </c>
       <c r="E384" t="n">
-        <v>21342527</v>
+        <v>21400424</v>
       </c>
       <c r="F384" t="inlineStr">
         <is>
@@ -20019,13 +20019,13 @@
         </is>
       </c>
       <c r="C386" t="n">
-        <v>10582</v>
+        <v>10598</v>
       </c>
       <c r="D386" t="n">
-        <v>2652</v>
+        <v>2654</v>
       </c>
       <c r="E386" t="n">
-        <v>18702087</v>
+        <v>18774221</v>
       </c>
       <c r="F386" t="inlineStr">
         <is>
@@ -20070,13 +20070,13 @@
         </is>
       </c>
       <c r="C387" t="n">
-        <v>683</v>
+        <v>688</v>
       </c>
       <c r="D387" t="n">
         <v>196</v>
       </c>
       <c r="E387" t="n">
-        <v>1102220</v>
+        <v>1109720</v>
       </c>
       <c r="F387" t="inlineStr">
         <is>
@@ -20121,13 +20121,13 @@
         </is>
       </c>
       <c r="C388" t="n">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="D388" t="n">
         <v>188</v>
       </c>
       <c r="E388" t="n">
-        <v>1163093</v>
+        <v>1167593</v>
       </c>
       <c r="F388" t="inlineStr">
         <is>
@@ -20172,13 +20172,13 @@
         </is>
       </c>
       <c r="C389" t="n">
-        <v>19306</v>
+        <v>19353</v>
       </c>
       <c r="D389" t="n">
-        <v>3636</v>
+        <v>3639</v>
       </c>
       <c r="E389" t="n">
-        <v>39659369</v>
+        <v>39759790</v>
       </c>
       <c r="F389" t="inlineStr">
         <is>
@@ -20223,13 +20223,13 @@
         </is>
       </c>
       <c r="C390" t="n">
-        <v>4350</v>
+        <v>4361</v>
       </c>
       <c r="D390" t="n">
         <v>882</v>
       </c>
       <c r="E390" t="n">
-        <v>9871477</v>
+        <v>9897303</v>
       </c>
       <c r="F390" t="inlineStr">
         <is>
@@ -20325,13 +20325,13 @@
         </is>
       </c>
       <c r="C392" t="n">
-        <v>6291</v>
+        <v>6300</v>
       </c>
       <c r="D392" t="n">
         <v>1217</v>
       </c>
       <c r="E392" t="n">
-        <v>14350479</v>
+        <v>14376350</v>
       </c>
       <c r="F392" t="inlineStr">
         <is>
@@ -20478,13 +20478,13 @@
         </is>
       </c>
       <c r="C395" t="n">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D395" t="n">
         <v>76</v>
       </c>
       <c r="E395" t="n">
-        <v>829749</v>
+        <v>834249</v>
       </c>
       <c r="F395" t="inlineStr">
         <is>
@@ -20529,13 +20529,13 @@
         </is>
       </c>
       <c r="C396" t="n">
-        <v>17139</v>
+        <v>17190</v>
       </c>
       <c r="D396" t="n">
-        <v>5314</v>
+        <v>5321</v>
       </c>
       <c r="E396" t="n">
-        <v>27713919</v>
+        <v>27882907</v>
       </c>
       <c r="F396" t="inlineStr">
         <is>
@@ -20631,13 +20631,13 @@
         </is>
       </c>
       <c r="C398" t="n">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D398" t="n">
         <v>41</v>
       </c>
       <c r="E398" t="n">
-        <v>448510</v>
+        <v>450010</v>
       </c>
       <c r="F398" t="inlineStr">
         <is>
@@ -20682,13 +20682,13 @@
         </is>
       </c>
       <c r="C399" t="n">
-        <v>6207</v>
+        <v>6225</v>
       </c>
       <c r="D399" t="n">
-        <v>2002</v>
+        <v>2006</v>
       </c>
       <c r="E399" t="n">
-        <v>17585027</v>
+        <v>17694100</v>
       </c>
       <c r="F399" t="inlineStr">
         <is>
@@ -20784,13 +20784,13 @@
         </is>
       </c>
       <c r="C401" t="n">
-        <v>3136</v>
+        <v>3145</v>
       </c>
       <c r="D401" t="n">
         <v>984</v>
       </c>
       <c r="E401" t="n">
-        <v>8176571</v>
+        <v>8211043</v>
       </c>
       <c r="F401" t="inlineStr">
         <is>
@@ -20886,13 +20886,13 @@
         </is>
       </c>
       <c r="C403" t="n">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="D403" t="n">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="E403" t="n">
-        <v>1892964</v>
+        <v>1915964</v>
       </c>
       <c r="F403" t="inlineStr">
         <is>
@@ -20937,13 +20937,13 @@
         </is>
       </c>
       <c r="C404" t="n">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D404" t="n">
         <v>98</v>
       </c>
       <c r="E404" t="n">
-        <v>692799</v>
+        <v>703465</v>
       </c>
       <c r="F404" t="inlineStr">
         <is>
@@ -20988,13 +20988,13 @@
         </is>
       </c>
       <c r="C405" t="n">
-        <v>98986</v>
+        <v>99295</v>
       </c>
       <c r="D405" t="n">
-        <v>29803</v>
+        <v>29828</v>
       </c>
       <c r="E405" t="n">
-        <v>148780658</v>
+        <v>149367504</v>
       </c>
       <c r="F405" t="inlineStr">
         <is>
@@ -21141,13 +21141,13 @@
         </is>
       </c>
       <c r="C408" t="n">
-        <v>705</v>
+        <v>711</v>
       </c>
       <c r="D408" t="n">
         <v>183</v>
       </c>
       <c r="E408" t="n">
-        <v>2823853</v>
+        <v>2861827</v>
       </c>
       <c r="F408" t="inlineStr">
         <is>
@@ -21192,13 +21192,13 @@
         </is>
       </c>
       <c r="C409" t="n">
-        <v>41867</v>
+        <v>42018</v>
       </c>
       <c r="D409" t="n">
-        <v>12660</v>
+        <v>12674</v>
       </c>
       <c r="E409" t="n">
-        <v>117505723</v>
+        <v>118321061</v>
       </c>
       <c r="F409" t="inlineStr">
         <is>
@@ -21243,13 +21243,13 @@
         </is>
       </c>
       <c r="C410" t="n">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D410" t="n">
         <v>44</v>
       </c>
       <c r="E410" t="n">
-        <v>942016</v>
+        <v>952016</v>
       </c>
       <c r="F410" t="inlineStr">
         <is>
@@ -21294,13 +21294,13 @@
         </is>
       </c>
       <c r="C411" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D411" t="n">
         <v>6</v>
       </c>
       <c r="E411" t="n">
-        <v>63660</v>
+        <v>73660</v>
       </c>
       <c r="F411" t="inlineStr">
         <is>
@@ -21345,13 +21345,13 @@
         </is>
       </c>
       <c r="C412" t="n">
-        <v>23139</v>
+        <v>23215</v>
       </c>
       <c r="D412" t="n">
-        <v>6481</v>
+        <v>6487</v>
       </c>
       <c r="E412" t="n">
-        <v>63770598</v>
+        <v>64094457</v>
       </c>
       <c r="F412" t="inlineStr">
         <is>
@@ -21396,13 +21396,13 @@
         </is>
       </c>
       <c r="C413" t="n">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="D413" t="n">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E413" t="n">
-        <v>1264913</v>
+        <v>1268333</v>
       </c>
       <c r="F413" t="inlineStr">
         <is>
@@ -21447,13 +21447,13 @@
         </is>
       </c>
       <c r="C414" t="n">
-        <v>2278</v>
+        <v>2290</v>
       </c>
       <c r="D414" t="n">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="E414" t="n">
-        <v>5764659</v>
+        <v>5795344</v>
       </c>
       <c r="F414" t="inlineStr">
         <is>
@@ -21549,13 +21549,13 @@
         </is>
       </c>
       <c r="C416" t="n">
-        <v>29683</v>
+        <v>29746</v>
       </c>
       <c r="D416" t="n">
-        <v>8967</v>
+        <v>8971</v>
       </c>
       <c r="E416" t="n">
-        <v>46341729</v>
+        <v>46487803</v>
       </c>
       <c r="F416" t="inlineStr">
         <is>
@@ -21651,13 +21651,13 @@
         </is>
       </c>
       <c r="C418" t="n">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="D418" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E418" t="n">
-        <v>1237688</v>
+        <v>1270847</v>
       </c>
       <c r="F418" t="inlineStr">
         <is>
@@ -21702,13 +21702,13 @@
         </is>
       </c>
       <c r="C419" t="n">
-        <v>12434</v>
+        <v>12477</v>
       </c>
       <c r="D419" t="n">
-        <v>3881</v>
+        <v>3886</v>
       </c>
       <c r="E419" t="n">
-        <v>33523455</v>
+        <v>33775489</v>
       </c>
       <c r="F419" t="inlineStr">
         <is>
@@ -21804,13 +21804,13 @@
         </is>
       </c>
       <c r="C421" t="n">
-        <v>8576</v>
+        <v>8610</v>
       </c>
       <c r="D421" t="n">
-        <v>2346</v>
+        <v>2351</v>
       </c>
       <c r="E421" t="n">
-        <v>21979200</v>
+        <v>22124870</v>
       </c>
       <c r="F421" t="inlineStr">
         <is>
@@ -21855,13 +21855,13 @@
         </is>
       </c>
       <c r="C422" t="n">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D422" t="n">
         <v>171</v>
       </c>
       <c r="E422" t="n">
-        <v>579164</v>
+        <v>590664</v>
       </c>
       <c r="F422" t="inlineStr">
         <is>
@@ -21906,13 +21906,13 @@
         </is>
       </c>
       <c r="C423" t="n">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D423" t="n">
         <v>160</v>
       </c>
       <c r="E423" t="n">
-        <v>1245404</v>
+        <v>1246221</v>
       </c>
       <c r="F423" t="inlineStr">
         <is>
@@ -21957,13 +21957,13 @@
         </is>
       </c>
       <c r="C424" t="n">
-        <v>50062</v>
+        <v>50220</v>
       </c>
       <c r="D424" t="n">
-        <v>15454</v>
+        <v>15466</v>
       </c>
       <c r="E424" t="n">
-        <v>75173794</v>
+        <v>75514626</v>
       </c>
       <c r="F424" t="inlineStr">
         <is>
@@ -22110,13 +22110,13 @@
         </is>
       </c>
       <c r="C427" t="n">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="D427" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E427" t="n">
-        <v>2096970</v>
+        <v>2122180</v>
       </c>
       <c r="F427" t="inlineStr">
         <is>
@@ -22161,13 +22161,13 @@
         </is>
       </c>
       <c r="C428" t="n">
-        <v>18989</v>
+        <v>19079</v>
       </c>
       <c r="D428" t="n">
-        <v>5951</v>
+        <v>5959</v>
       </c>
       <c r="E428" t="n">
-        <v>53825564</v>
+        <v>54263690</v>
       </c>
       <c r="F428" t="inlineStr">
         <is>
@@ -22263,13 +22263,13 @@
         </is>
       </c>
       <c r="C430" t="n">
-        <v>8498</v>
+        <v>8519</v>
       </c>
       <c r="D430" t="n">
-        <v>2624</v>
+        <v>2628</v>
       </c>
       <c r="E430" t="n">
-        <v>25248166</v>
+        <v>25359377</v>
       </c>
       <c r="F430" t="inlineStr">
         <is>
@@ -22314,13 +22314,13 @@
         </is>
       </c>
       <c r="C431" t="n">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="D431" t="n">
         <v>197</v>
       </c>
       <c r="E431" t="n">
-        <v>888715</v>
+        <v>898312</v>
       </c>
       <c r="F431" t="inlineStr">
         <is>
@@ -22365,13 +22365,13 @@
         </is>
       </c>
       <c r="C432" t="n">
-        <v>728</v>
+        <v>734</v>
       </c>
       <c r="D432" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E432" t="n">
-        <v>1615233</v>
+        <v>1631920</v>
       </c>
       <c r="F432" t="inlineStr">
         <is>
@@ -22416,13 +22416,13 @@
         </is>
       </c>
       <c r="C433" t="n">
-        <v>21426</v>
+        <v>21481</v>
       </c>
       <c r="D433" t="n">
-        <v>6693</v>
+        <v>6694</v>
       </c>
       <c r="E433" t="n">
-        <v>32011575</v>
+        <v>32125079</v>
       </c>
       <c r="F433" t="inlineStr">
         <is>
@@ -22569,13 +22569,13 @@
         </is>
       </c>
       <c r="C436" t="n">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D436" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E436" t="n">
-        <v>770116</v>
+        <v>780116</v>
       </c>
       <c r="F436" t="inlineStr">
         <is>
@@ -22620,13 +22620,13 @@
         </is>
       </c>
       <c r="C437" t="n">
-        <v>7179</v>
+        <v>7204</v>
       </c>
       <c r="D437" t="n">
-        <v>2270</v>
+        <v>2274</v>
       </c>
       <c r="E437" t="n">
-        <v>21288152</v>
+        <v>21472389</v>
       </c>
       <c r="F437" t="inlineStr">
         <is>
@@ -22722,13 +22722,13 @@
         </is>
       </c>
       <c r="C439" t="n">
-        <v>3580</v>
+        <v>3594</v>
       </c>
       <c r="D439" t="n">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="E439" t="n">
-        <v>10671688</v>
+        <v>10750689</v>
       </c>
       <c r="F439" t="inlineStr">
         <is>
@@ -22773,13 +22773,13 @@
         </is>
       </c>
       <c r="C440" t="n">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D440" t="n">
         <v>79</v>
       </c>
       <c r="E440" t="n">
-        <v>397104</v>
+        <v>398604</v>
       </c>
       <c r="F440" t="inlineStr">
         <is>
@@ -22824,13 +22824,13 @@
         </is>
       </c>
       <c r="C441" t="n">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="D441" t="n">
         <v>164</v>
       </c>
       <c r="E441" t="n">
-        <v>1224938</v>
+        <v>1238490</v>
       </c>
       <c r="F441" t="inlineStr">
         <is>
@@ -22875,13 +22875,13 @@
         </is>
       </c>
       <c r="C442" t="n">
-        <v>60456</v>
+        <v>60584</v>
       </c>
       <c r="D442" t="n">
-        <v>15841</v>
+        <v>15853</v>
       </c>
       <c r="E442" t="n">
-        <v>98584081</v>
+        <v>98860167</v>
       </c>
       <c r="F442" t="inlineStr">
         <is>
@@ -22977,13 +22977,13 @@
         </is>
       </c>
       <c r="C444" t="n">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D444" t="n">
         <v>63</v>
       </c>
       <c r="E444" t="n">
-        <v>714588</v>
+        <v>736088</v>
       </c>
       <c r="F444" t="inlineStr">
         <is>
@@ -23028,13 +23028,13 @@
         </is>
       </c>
       <c r="C445" t="n">
-        <v>21761</v>
+        <v>21826</v>
       </c>
       <c r="D445" t="n">
-        <v>6729</v>
+        <v>6733</v>
       </c>
       <c r="E445" t="n">
-        <v>56519272</v>
+        <v>56845304</v>
       </c>
       <c r="F445" t="inlineStr">
         <is>
@@ -23130,13 +23130,13 @@
         </is>
       </c>
       <c r="C447" t="n">
-        <v>21111</v>
+        <v>21175</v>
       </c>
       <c r="D447" t="n">
-        <v>5623</v>
+        <v>5631</v>
       </c>
       <c r="E447" t="n">
-        <v>49690310</v>
+        <v>49976213</v>
       </c>
       <c r="F447" t="inlineStr">
         <is>
@@ -23232,13 +23232,13 @@
         </is>
       </c>
       <c r="C449" t="n">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="D449" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E449" t="n">
-        <v>1614470</v>
+        <v>1648813</v>
       </c>
       <c r="F449" t="inlineStr">
         <is>
@@ -23283,13 +23283,13 @@
         </is>
       </c>
       <c r="C450" t="n">
-        <v>110355</v>
+        <v>110592</v>
       </c>
       <c r="D450" t="n">
-        <v>26410</v>
+        <v>26426</v>
       </c>
       <c r="E450" t="n">
-        <v>183587544</v>
+        <v>184099489</v>
       </c>
       <c r="F450" t="inlineStr">
         <is>
@@ -23436,13 +23436,13 @@
         </is>
       </c>
       <c r="C453" t="n">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="D453" t="n">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E453" t="n">
-        <v>2052046</v>
+        <v>2082046</v>
       </c>
       <c r="F453" t="inlineStr">
         <is>
@@ -23487,13 +23487,13 @@
         </is>
       </c>
       <c r="C454" t="n">
-        <v>41689</v>
+        <v>41852</v>
       </c>
       <c r="D454" t="n">
-        <v>11322</v>
+        <v>11336</v>
       </c>
       <c r="E454" t="n">
-        <v>118201234</v>
+        <v>119125758</v>
       </c>
       <c r="F454" t="inlineStr">
         <is>
@@ -23538,13 +23538,13 @@
         </is>
       </c>
       <c r="C455" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D455" t="n">
         <v>47</v>
       </c>
       <c r="E455" t="n">
-        <v>1285118</v>
+        <v>1286618</v>
       </c>
       <c r="F455" t="inlineStr">
         <is>
@@ -23589,13 +23589,13 @@
         </is>
       </c>
       <c r="C456" t="n">
-        <v>42895</v>
+        <v>43000</v>
       </c>
       <c r="D456" t="n">
-        <v>10549</v>
+        <v>10558</v>
       </c>
       <c r="E456" t="n">
-        <v>112215901</v>
+        <v>112664591</v>
       </c>
       <c r="F456" t="inlineStr">
         <is>
@@ -23691,13 +23691,13 @@
         </is>
       </c>
       <c r="C458" t="n">
-        <v>1386</v>
+        <v>1393</v>
       </c>
       <c r="D458" t="n">
         <v>359</v>
       </c>
       <c r="E458" t="n">
-        <v>3332227</v>
+        <v>3363104</v>
       </c>
       <c r="F458" t="inlineStr">
         <is>
@@ -23742,13 +23742,13 @@
         </is>
       </c>
       <c r="C459" t="n">
-        <v>269548</v>
+        <v>270288</v>
       </c>
       <c r="D459" t="n">
-        <v>67765</v>
+        <v>67800</v>
       </c>
       <c r="E459" t="n">
-        <v>429668422</v>
+        <v>431403258</v>
       </c>
       <c r="F459" t="inlineStr">
         <is>
@@ -23844,13 +23844,13 @@
         </is>
       </c>
       <c r="C461" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D461" t="n">
         <v>68</v>
       </c>
       <c r="E461" t="n">
-        <v>815766</v>
+        <v>825766</v>
       </c>
       <c r="F461" t="inlineStr">
         <is>
@@ -23997,13 +23997,13 @@
         </is>
       </c>
       <c r="C464" t="n">
-        <v>1464</v>
+        <v>1476</v>
       </c>
       <c r="D464" t="n">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E464" t="n">
-        <v>10727042</v>
+        <v>10832439</v>
       </c>
       <c r="F464" t="inlineStr">
         <is>
@@ -24099,13 +24099,13 @@
         </is>
       </c>
       <c r="C466" t="n">
-        <v>156139</v>
+        <v>156802</v>
       </c>
       <c r="D466" t="n">
-        <v>40059</v>
+        <v>40110</v>
       </c>
       <c r="E466" t="n">
-        <v>491043811</v>
+        <v>494793624</v>
       </c>
       <c r="F466" t="inlineStr">
         <is>
@@ -24150,13 +24150,13 @@
         </is>
       </c>
       <c r="C467" t="n">
-        <v>968</v>
+        <v>973</v>
       </c>
       <c r="D467" t="n">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E467" t="n">
-        <v>8347673</v>
+        <v>8396554</v>
       </c>
       <c r="F467" t="inlineStr">
         <is>
@@ -24252,13 +24252,13 @@
         </is>
       </c>
       <c r="C469" t="n">
-        <v>121003</v>
+        <v>121505</v>
       </c>
       <c r="D469" t="n">
-        <v>30700</v>
+        <v>30749</v>
       </c>
       <c r="E469" t="n">
-        <v>389226529</v>
+        <v>391804360</v>
       </c>
       <c r="F469" t="inlineStr">
         <is>
@@ -24354,13 +24354,13 @@
         </is>
       </c>
       <c r="C471" t="n">
-        <v>1725</v>
+        <v>1732</v>
       </c>
       <c r="D471" t="n">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E471" t="n">
-        <v>3382359</v>
+        <v>3404862</v>
       </c>
       <c r="F471" t="inlineStr">
         <is>
@@ -24456,13 +24456,13 @@
         </is>
       </c>
       <c r="C473" t="n">
-        <v>6290</v>
+        <v>6309</v>
       </c>
       <c r="D473" t="n">
-        <v>1578</v>
+        <v>1582</v>
       </c>
       <c r="E473" t="n">
-        <v>15887243</v>
+        <v>15969618</v>
       </c>
       <c r="F473" t="inlineStr">
         <is>
@@ -24609,13 +24609,13 @@
         </is>
       </c>
       <c r="C476" t="n">
-        <v>69524</v>
+        <v>69665</v>
       </c>
       <c r="D476" t="n">
-        <v>18495</v>
+        <v>18506</v>
       </c>
       <c r="E476" t="n">
-        <v>111035164</v>
+        <v>111433737</v>
       </c>
       <c r="F476" t="inlineStr">
         <is>
@@ -24660,13 +24660,13 @@
         </is>
       </c>
       <c r="C477" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D477" t="n">
         <v>9</v>
       </c>
       <c r="E477" t="n">
-        <v>44545</v>
+        <v>55211</v>
       </c>
       <c r="F477" t="inlineStr">
         <is>
@@ -24813,13 +24813,13 @@
         </is>
       </c>
       <c r="C480" t="n">
-        <v>24869</v>
+        <v>24948</v>
       </c>
       <c r="D480" t="n">
-        <v>7613</v>
+        <v>7622</v>
       </c>
       <c r="E480" t="n">
-        <v>67308387</v>
+        <v>67701234</v>
       </c>
       <c r="F480" t="inlineStr">
         <is>
@@ -24915,13 +24915,13 @@
         </is>
       </c>
       <c r="C482" t="n">
-        <v>22835</v>
+        <v>22913</v>
       </c>
       <c r="D482" t="n">
-        <v>6187</v>
+        <v>6195</v>
       </c>
       <c r="E482" t="n">
-        <v>56724437</v>
+        <v>57139461</v>
       </c>
       <c r="F482" t="inlineStr">
         <is>
@@ -24966,13 +24966,13 @@
         </is>
       </c>
       <c r="C483" t="n">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="D483" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E483" t="n">
-        <v>1115327</v>
+        <v>1119827</v>
       </c>
       <c r="F483" t="inlineStr">
         <is>
@@ -25068,13 +25068,13 @@
         </is>
       </c>
       <c r="C485" t="n">
-        <v>123335</v>
+        <v>123615</v>
       </c>
       <c r="D485" t="n">
-        <v>26834</v>
+        <v>26842</v>
       </c>
       <c r="E485" t="n">
-        <v>216238013</v>
+        <v>217081320</v>
       </c>
       <c r="F485" t="inlineStr">
         <is>
@@ -25221,13 +25221,13 @@
         </is>
       </c>
       <c r="C488" t="n">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D488" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E488" t="n">
-        <v>1120238</v>
+        <v>1148896</v>
       </c>
       <c r="F488" t="inlineStr">
         <is>
@@ -25272,13 +25272,13 @@
         </is>
       </c>
       <c r="C489" t="n">
-        <v>38230</v>
+        <v>38364</v>
       </c>
       <c r="D489" t="n">
-        <v>10764</v>
+        <v>10784</v>
       </c>
       <c r="E489" t="n">
-        <v>99789537</v>
+        <v>100568877</v>
       </c>
       <c r="F489" t="inlineStr">
         <is>
@@ -25374,13 +25374,13 @@
         </is>
       </c>
       <c r="C491" t="n">
-        <v>44150</v>
+        <v>44290</v>
       </c>
       <c r="D491" t="n">
-        <v>10241</v>
+        <v>10248</v>
       </c>
       <c r="E491" t="n">
-        <v>102623473</v>
+        <v>103368908</v>
       </c>
       <c r="F491" t="inlineStr">
         <is>
@@ -25476,13 +25476,13 @@
         </is>
       </c>
       <c r="C493" t="n">
-        <v>1790</v>
+        <v>1797</v>
       </c>
       <c r="D493" t="n">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="E493" t="n">
-        <v>3886527</v>
+        <v>3908517</v>
       </c>
       <c r="F493" t="inlineStr">
         <is>
@@ -25527,13 +25527,13 @@
         </is>
       </c>
       <c r="C494" t="n">
-        <v>95383</v>
+        <v>95591</v>
       </c>
       <c r="D494" t="n">
-        <v>22888</v>
+        <v>22898</v>
       </c>
       <c r="E494" t="n">
-        <v>156523753</v>
+        <v>157065140</v>
       </c>
       <c r="F494" t="inlineStr">
         <is>
@@ -25629,13 +25629,13 @@
         </is>
       </c>
       <c r="C496" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D496" t="n">
         <v>77</v>
       </c>
       <c r="E496" t="n">
-        <v>1005150</v>
+        <v>1015150</v>
       </c>
       <c r="F496" t="inlineStr">
         <is>
@@ -25680,13 +25680,13 @@
         </is>
       </c>
       <c r="C497" t="n">
-        <v>29850</v>
+        <v>29959</v>
       </c>
       <c r="D497" t="n">
-        <v>8401</v>
+        <v>8414</v>
       </c>
       <c r="E497" t="n">
-        <v>79956206</v>
+        <v>80553544</v>
       </c>
       <c r="F497" t="inlineStr">
         <is>
@@ -25833,13 +25833,13 @@
         </is>
       </c>
       <c r="C500" t="n">
-        <v>33556</v>
+        <v>33649</v>
       </c>
       <c r="D500" t="n">
-        <v>8236</v>
+        <v>8245</v>
       </c>
       <c r="E500" t="n">
-        <v>79492122</v>
+        <v>79957024</v>
       </c>
       <c r="F500" t="inlineStr">
         <is>
@@ -25884,13 +25884,13 @@
         </is>
       </c>
       <c r="C501" t="n">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D501" t="n">
         <v>117</v>
       </c>
       <c r="E501" t="n">
-        <v>521305</v>
+        <v>522155</v>
       </c>
       <c r="F501" t="inlineStr">
         <is>
@@ -25935,13 +25935,13 @@
         </is>
       </c>
       <c r="C502" t="n">
-        <v>1409</v>
+        <v>1416</v>
       </c>
       <c r="D502" t="n">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="E502" t="n">
-        <v>3552903</v>
+        <v>3562669</v>
       </c>
       <c r="F502" t="inlineStr">
         <is>
@@ -25986,13 +25986,13 @@
         </is>
       </c>
       <c r="C503" t="n">
-        <v>72646</v>
+        <v>72795</v>
       </c>
       <c r="D503" t="n">
-        <v>17154</v>
+        <v>17167</v>
       </c>
       <c r="E503" t="n">
-        <v>122365013</v>
+        <v>122791251</v>
       </c>
       <c r="F503" t="inlineStr">
         <is>
@@ -26088,13 +26088,13 @@
         </is>
       </c>
       <c r="C505" t="n">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D505" t="n">
         <v>116</v>
       </c>
       <c r="E505" t="n">
-        <v>1808494</v>
+        <v>1818001</v>
       </c>
       <c r="F505" t="inlineStr">
         <is>
@@ -26139,13 +26139,13 @@
         </is>
       </c>
       <c r="C506" t="n">
-        <v>22501</v>
+        <v>22567</v>
       </c>
       <c r="D506" t="n">
-        <v>6804</v>
+        <v>6809</v>
       </c>
       <c r="E506" t="n">
-        <v>58331775</v>
+        <v>58687797</v>
       </c>
       <c r="F506" t="inlineStr">
         <is>
@@ -26190,13 +26190,13 @@
         </is>
       </c>
       <c r="C507" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D507" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E507" t="n">
-        <v>156178</v>
+        <v>166178</v>
       </c>
       <c r="F507" t="inlineStr">
         <is>
@@ -26241,13 +26241,13 @@
         </is>
       </c>
       <c r="C508" t="n">
-        <v>25806</v>
+        <v>25877</v>
       </c>
       <c r="D508" t="n">
-        <v>6423</v>
+        <v>6432</v>
       </c>
       <c r="E508" t="n">
-        <v>60030690</v>
+        <v>60345671</v>
       </c>
       <c r="F508" t="inlineStr">
         <is>
@@ -26394,13 +26394,13 @@
         </is>
       </c>
       <c r="C511" t="n">
-        <v>67560</v>
+        <v>67704</v>
       </c>
       <c r="D511" t="n">
-        <v>18712</v>
+        <v>18719</v>
       </c>
       <c r="E511" t="n">
-        <v>107197165</v>
+        <v>107576793</v>
       </c>
       <c r="F511" t="inlineStr">
         <is>
@@ -26496,13 +26496,13 @@
         </is>
       </c>
       <c r="C513" t="n">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D513" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E513" t="n">
-        <v>1262708</v>
+        <v>1278036</v>
       </c>
       <c r="F513" t="inlineStr">
         <is>
@@ -26547,13 +26547,13 @@
         </is>
       </c>
       <c r="C514" t="n">
-        <v>26600</v>
+        <v>26705</v>
       </c>
       <c r="D514" t="n">
-        <v>8170</v>
+        <v>8185</v>
       </c>
       <c r="E514" t="n">
-        <v>73990804</v>
+        <v>74504656</v>
       </c>
       <c r="F514" t="inlineStr">
         <is>
@@ -26649,13 +26649,13 @@
         </is>
       </c>
       <c r="C516" t="n">
-        <v>22913</v>
+        <v>22987</v>
       </c>
       <c r="D516" t="n">
-        <v>6214</v>
+        <v>6220</v>
       </c>
       <c r="E516" t="n">
-        <v>56398434</v>
+        <v>56751699</v>
       </c>
       <c r="F516" t="inlineStr">
         <is>
@@ -26802,13 +26802,13 @@
         </is>
       </c>
       <c r="C519" t="n">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D519" t="n">
         <v>197</v>
       </c>
       <c r="E519" t="n">
-        <v>1800459</v>
+        <v>1804944</v>
       </c>
       <c r="F519" t="inlineStr">
         <is>
@@ -26853,13 +26853,13 @@
         </is>
       </c>
       <c r="C520" t="n">
-        <v>57013</v>
+        <v>57073</v>
       </c>
       <c r="D520" t="n">
-        <v>17198</v>
+        <v>17199</v>
       </c>
       <c r="E520" t="n">
-        <v>80252010</v>
+        <v>80354591</v>
       </c>
       <c r="F520" t="inlineStr">
         <is>
@@ -27057,13 +27057,13 @@
         </is>
       </c>
       <c r="C524" t="n">
-        <v>16987</v>
+        <v>17010</v>
       </c>
       <c r="D524" t="n">
         <v>5876</v>
       </c>
       <c r="E524" t="n">
-        <v>29771406</v>
+        <v>29882059</v>
       </c>
       <c r="F524" t="inlineStr">
         <is>
@@ -27159,13 +27159,13 @@
         </is>
       </c>
       <c r="C526" t="n">
-        <v>4728</v>
+        <v>4733</v>
       </c>
       <c r="D526" t="n">
         <v>1516</v>
       </c>
       <c r="E526" t="n">
-        <v>7942309</v>
+        <v>7949545</v>
       </c>
       <c r="F526" t="inlineStr">
         <is>
@@ -27312,13 +27312,13 @@
         </is>
       </c>
       <c r="C529" t="n">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D529" t="n">
         <v>166</v>
       </c>
       <c r="E529" t="n">
-        <v>711133</v>
+        <v>712504</v>
       </c>
       <c r="F529" t="inlineStr">
         <is>
@@ -27414,13 +27414,13 @@
         </is>
       </c>
       <c r="C531" t="n">
-        <v>26141</v>
+        <v>26243</v>
       </c>
       <c r="D531" t="n">
-        <v>6973</v>
+        <v>6975</v>
       </c>
       <c r="E531" t="n">
-        <v>39787170</v>
+        <v>40013963</v>
       </c>
       <c r="F531" t="inlineStr">
         <is>
@@ -27516,13 +27516,13 @@
         </is>
       </c>
       <c r="C533" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D533" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E533" t="n">
-        <v>122020</v>
+        <v>132020</v>
       </c>
       <c r="F533" t="inlineStr">
         <is>
@@ -27567,13 +27567,13 @@
         </is>
       </c>
       <c r="C534" t="n">
-        <v>10913</v>
+        <v>10952</v>
       </c>
       <c r="D534" t="n">
-        <v>3107</v>
+        <v>3114</v>
       </c>
       <c r="E534" t="n">
-        <v>24163657</v>
+        <v>24356755</v>
       </c>
       <c r="F534" t="inlineStr">
         <is>
@@ -27669,13 +27669,13 @@
         </is>
       </c>
       <c r="C536" t="n">
-        <v>7730</v>
+        <v>7756</v>
       </c>
       <c r="D536" t="n">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="E536" t="n">
-        <v>15601193</v>
+        <v>15716399</v>
       </c>
       <c r="F536" t="inlineStr">
         <is>
@@ -27720,13 +27720,13 @@
         </is>
       </c>
       <c r="C537" t="n">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D537" t="n">
         <v>123</v>
       </c>
       <c r="E537" t="n">
-        <v>618952</v>
+        <v>620363</v>
       </c>
       <c r="F537" t="inlineStr">
         <is>
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="C538" t="n">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="D538" t="n">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E538" t="n">
-        <v>942251</v>
+        <v>945251</v>
       </c>
       <c r="F538" t="inlineStr">
         <is>
@@ -27822,13 +27822,13 @@
         </is>
       </c>
       <c r="C539" t="n">
-        <v>34917</v>
+        <v>35002</v>
       </c>
       <c r="D539" t="n">
-        <v>5351</v>
+        <v>5353</v>
       </c>
       <c r="E539" t="n">
-        <v>86717999</v>
+        <v>87259622</v>
       </c>
       <c r="F539" t="inlineStr">
         <is>
@@ -27873,13 +27873,13 @@
         </is>
       </c>
       <c r="C540" t="n">
-        <v>3368</v>
+        <v>3372</v>
       </c>
       <c r="D540" t="n">
         <v>657</v>
       </c>
       <c r="E540" t="n">
-        <v>8207403</v>
+        <v>8236403</v>
       </c>
       <c r="F540" t="inlineStr">
         <is>
@@ -27975,13 +27975,13 @@
         </is>
       </c>
       <c r="C542" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D542" t="n">
         <v>17</v>
       </c>
       <c r="E542" t="n">
-        <v>265095</v>
+        <v>275095</v>
       </c>
       <c r="F542" t="inlineStr">
         <is>
@@ -28026,13 +28026,13 @@
         </is>
       </c>
       <c r="C543" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D543" t="n">
         <v>37</v>
       </c>
       <c r="E543" t="n">
-        <v>520986</v>
+        <v>523986</v>
       </c>
       <c r="F543" t="inlineStr">
         <is>
@@ -28077,13 +28077,13 @@
         </is>
       </c>
       <c r="C544" t="n">
-        <v>34082</v>
+        <v>34172</v>
       </c>
       <c r="D544" t="n">
-        <v>10584</v>
+        <v>10592</v>
       </c>
       <c r="E544" t="n">
-        <v>53059409</v>
+        <v>53313657</v>
       </c>
       <c r="F544" t="inlineStr">
         <is>
@@ -28230,13 +28230,13 @@
         </is>
       </c>
       <c r="C547" t="n">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="D547" t="n">
         <v>142</v>
       </c>
       <c r="E547" t="n">
-        <v>2119387</v>
+        <v>2145070</v>
       </c>
       <c r="F547" t="inlineStr">
         <is>
@@ -28281,13 +28281,13 @@
         </is>
       </c>
       <c r="C548" t="n">
-        <v>15623</v>
+        <v>15689</v>
       </c>
       <c r="D548" t="n">
-        <v>4719</v>
+        <v>4725</v>
       </c>
       <c r="E548" t="n">
-        <v>47868175</v>
+        <v>48191847</v>
       </c>
       <c r="F548" t="inlineStr">
         <is>
@@ -28383,13 +28383,13 @@
         </is>
       </c>
       <c r="C550" t="n">
-        <v>6156</v>
+        <v>6177</v>
       </c>
       <c r="D550" t="n">
-        <v>1814</v>
+        <v>1816</v>
       </c>
       <c r="E550" t="n">
-        <v>20300907</v>
+        <v>20425634</v>
       </c>
       <c r="F550" t="inlineStr">
         <is>
@@ -28434,13 +28434,13 @@
         </is>
       </c>
       <c r="C551" t="n">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D551" t="n">
         <v>178</v>
       </c>
       <c r="E551" t="n">
-        <v>922649</v>
+        <v>924356</v>
       </c>
       <c r="F551" t="inlineStr">
         <is>
@@ -28485,13 +28485,13 @@
         </is>
       </c>
       <c r="C552" t="n">
-        <v>963</v>
+        <v>968</v>
       </c>
       <c r="D552" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E552" t="n">
-        <v>2245379</v>
+        <v>2249313</v>
       </c>
       <c r="F552" t="inlineStr">
         <is>
@@ -28536,13 +28536,13 @@
         </is>
       </c>
       <c r="C553" t="n">
-        <v>22671</v>
+        <v>22765</v>
       </c>
       <c r="D553" t="n">
-        <v>6974</v>
+        <v>6987</v>
       </c>
       <c r="E553" t="n">
-        <v>35669115</v>
+        <v>35861256</v>
       </c>
       <c r="F553" t="inlineStr">
         <is>
@@ -28587,13 +28587,13 @@
         </is>
       </c>
       <c r="C554" t="n">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D554" t="n">
         <v>61</v>
       </c>
       <c r="E554" t="n">
-        <v>633885</v>
+        <v>648631</v>
       </c>
       <c r="F554" t="inlineStr">
         <is>
@@ -28638,13 +28638,13 @@
         </is>
       </c>
       <c r="C555" t="n">
-        <v>9339</v>
+        <v>9375</v>
       </c>
       <c r="D555" t="n">
-        <v>3000</v>
+        <v>3008</v>
       </c>
       <c r="E555" t="n">
-        <v>25706087</v>
+        <v>25877620</v>
       </c>
       <c r="F555" t="inlineStr">
         <is>
@@ -28740,13 +28740,13 @@
         </is>
       </c>
       <c r="C557" t="n">
-        <v>4557</v>
+        <v>4571</v>
       </c>
       <c r="D557" t="n">
-        <v>1353</v>
+        <v>1356</v>
       </c>
       <c r="E557" t="n">
-        <v>12283969</v>
+        <v>12334916</v>
       </c>
       <c r="F557" t="inlineStr">
         <is>
@@ -28791,13 +28791,13 @@
         </is>
       </c>
       <c r="C558" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D558" t="n">
         <v>94</v>
       </c>
       <c r="E558" t="n">
-        <v>562271</v>
+        <v>563771</v>
       </c>
       <c r="F558" t="inlineStr">
         <is>
@@ -28893,13 +28893,13 @@
         </is>
       </c>
       <c r="C560" t="n">
-        <v>20905</v>
+        <v>20951</v>
       </c>
       <c r="D560" t="n">
-        <v>6535</v>
+        <v>6538</v>
       </c>
       <c r="E560" t="n">
-        <v>34717855</v>
+        <v>34854031</v>
       </c>
       <c r="F560" t="inlineStr">
         <is>
@@ -29046,13 +29046,13 @@
         </is>
       </c>
       <c r="C563" t="n">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="D563" t="n">
         <v>102</v>
       </c>
       <c r="E563" t="n">
-        <v>1308727</v>
+        <v>1334548</v>
       </c>
       <c r="F563" t="inlineStr">
         <is>
@@ -29097,13 +29097,13 @@
         </is>
       </c>
       <c r="C564" t="n">
-        <v>8943</v>
+        <v>8970</v>
       </c>
       <c r="D564" t="n">
-        <v>2758</v>
+        <v>2762</v>
       </c>
       <c r="E564" t="n">
-        <v>26843761</v>
+        <v>26989300</v>
       </c>
       <c r="F564" t="inlineStr">
         <is>
@@ -29199,13 +29199,13 @@
         </is>
       </c>
       <c r="C566" t="n">
-        <v>2094</v>
+        <v>2098</v>
       </c>
       <c r="D566" t="n">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="E566" t="n">
-        <v>6326066</v>
+        <v>6346365</v>
       </c>
       <c r="F566" t="inlineStr">
         <is>
@@ -29250,13 +29250,13 @@
         </is>
       </c>
       <c r="C567" t="n">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D567" t="n">
         <v>142</v>
       </c>
       <c r="E567" t="n">
-        <v>757220</v>
+        <v>768720</v>
       </c>
       <c r="F567" t="inlineStr">
         <is>
@@ -29301,13 +29301,13 @@
         </is>
       </c>
       <c r="C568" t="n">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="D568" t="n">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E568" t="n">
-        <v>1197916</v>
+        <v>1200957</v>
       </c>
       <c r="F568" t="inlineStr">
         <is>
@@ -29352,13 +29352,13 @@
         </is>
       </c>
       <c r="C569" t="n">
-        <v>11511</v>
+        <v>11553</v>
       </c>
       <c r="D569" t="n">
-        <v>3586</v>
+        <v>3593</v>
       </c>
       <c r="E569" t="n">
-        <v>18901635</v>
+        <v>18986647</v>
       </c>
       <c r="F569" t="inlineStr">
         <is>
@@ -29505,13 +29505,13 @@
         </is>
       </c>
       <c r="C572" t="n">
-        <v>4152</v>
+        <v>4175</v>
       </c>
       <c r="D572" t="n">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="E572" t="n">
-        <v>11602972</v>
+        <v>11727245</v>
       </c>
       <c r="F572" t="inlineStr">
         <is>
@@ -29556,13 +29556,13 @@
         </is>
       </c>
       <c r="C573" t="n">
-        <v>1436</v>
+        <v>1444</v>
       </c>
       <c r="D573" t="n">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E573" t="n">
-        <v>4118792</v>
+        <v>4160760</v>
       </c>
       <c r="F573" t="inlineStr">
         <is>
@@ -29658,13 +29658,13 @@
         </is>
       </c>
       <c r="C575" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D575" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E575" t="n">
-        <v>534297</v>
+        <v>544297</v>
       </c>
       <c r="F575" t="inlineStr">
         <is>
@@ -29709,13 +29709,13 @@
         </is>
       </c>
       <c r="C576" t="n">
-        <v>44858</v>
+        <v>45024</v>
       </c>
       <c r="D576" t="n">
-        <v>13858</v>
+        <v>13871</v>
       </c>
       <c r="E576" t="n">
-        <v>69502504</v>
+        <v>69872915</v>
       </c>
       <c r="F576" t="inlineStr">
         <is>
@@ -29862,13 +29862,13 @@
         </is>
       </c>
       <c r="C579" t="n">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D579" t="n">
         <v>116</v>
       </c>
       <c r="E579" t="n">
-        <v>1582992</v>
+        <v>1603211</v>
       </c>
       <c r="F579" t="inlineStr">
         <is>
@@ -29913,13 +29913,13 @@
         </is>
       </c>
       <c r="C580" t="n">
-        <v>18858</v>
+        <v>18944</v>
       </c>
       <c r="D580" t="n">
-        <v>5861</v>
+        <v>5873</v>
       </c>
       <c r="E580" t="n">
-        <v>56416674</v>
+        <v>56972014</v>
       </c>
       <c r="F580" t="inlineStr">
         <is>
@@ -30015,13 +30015,13 @@
         </is>
       </c>
       <c r="C582" t="n">
-        <v>8539</v>
+        <v>8562</v>
       </c>
       <c r="D582" t="n">
-        <v>2485</v>
+        <v>2487</v>
       </c>
       <c r="E582" t="n">
-        <v>24553408</v>
+        <v>24679589</v>
       </c>
       <c r="F582" t="inlineStr">
         <is>
@@ -30066,13 +30066,13 @@
         </is>
       </c>
       <c r="C583" t="n">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="D583" t="n">
         <v>140</v>
       </c>
       <c r="E583" t="n">
-        <v>617510</v>
+        <v>621422</v>
       </c>
       <c r="F583" t="inlineStr">
         <is>
@@ -30117,13 +30117,13 @@
         </is>
       </c>
       <c r="C584" t="n">
-        <v>1144</v>
+        <v>1152</v>
       </c>
       <c r="D584" t="n">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="E584" t="n">
-        <v>2882692</v>
+        <v>2910281</v>
       </c>
       <c r="F584" t="inlineStr">
         <is>
@@ -30168,13 +30168,13 @@
         </is>
       </c>
       <c r="C585" t="n">
-        <v>16947</v>
+        <v>17021</v>
       </c>
       <c r="D585" t="n">
-        <v>5379</v>
+        <v>5383</v>
       </c>
       <c r="E585" t="n">
-        <v>24578156</v>
+        <v>24698676</v>
       </c>
       <c r="F585" t="inlineStr">
         <is>
@@ -30270,13 +30270,13 @@
         </is>
       </c>
       <c r="C587" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D587" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E587" t="n">
-        <v>277197</v>
+        <v>278697</v>
       </c>
       <c r="F587" t="inlineStr">
         <is>
@@ -30372,13 +30372,13 @@
         </is>
       </c>
       <c r="C589" t="n">
-        <v>5858</v>
+        <v>5875</v>
       </c>
       <c r="D589" t="n">
-        <v>1894</v>
+        <v>1899</v>
       </c>
       <c r="E589" t="n">
-        <v>16618798</v>
+        <v>16707634</v>
       </c>
       <c r="F589" t="inlineStr">
         <is>
@@ -30474,13 +30474,13 @@
         </is>
       </c>
       <c r="C591" t="n">
-        <v>1812</v>
+        <v>1815</v>
       </c>
       <c r="D591" t="n">
         <v>590</v>
       </c>
       <c r="E591" t="n">
-        <v>5270091</v>
+        <v>5296197</v>
       </c>
       <c r="F591" t="inlineStr">
         <is>
@@ -30525,13 +30525,13 @@
         </is>
       </c>
       <c r="C592" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D592" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E592" t="n">
-        <v>237947</v>
+        <v>239447</v>
       </c>
       <c r="F592" t="inlineStr">
         <is>
@@ -30576,13 +30576,13 @@
         </is>
       </c>
       <c r="C593" t="n">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="D593" t="n">
         <v>121</v>
       </c>
       <c r="E593" t="n">
-        <v>988016</v>
+        <v>998536</v>
       </c>
       <c r="F593" t="inlineStr">
         <is>
@@ -30627,13 +30627,13 @@
         </is>
       </c>
       <c r="C594" t="n">
-        <v>41540</v>
+        <v>41644</v>
       </c>
       <c r="D594" t="n">
-        <v>13382</v>
+        <v>13396</v>
       </c>
       <c r="E594" t="n">
-        <v>61718314</v>
+        <v>61936489</v>
       </c>
       <c r="F594" t="inlineStr">
         <is>
@@ -30831,13 +30831,13 @@
         </is>
       </c>
       <c r="C598" t="n">
-        <v>17660</v>
+        <v>17736</v>
       </c>
       <c r="D598" t="n">
-        <v>5683</v>
+        <v>5691</v>
       </c>
       <c r="E598" t="n">
-        <v>53604426</v>
+        <v>53975735</v>
       </c>
       <c r="F598" t="inlineStr">
         <is>
@@ -30933,13 +30933,13 @@
         </is>
       </c>
       <c r="C600" t="n">
-        <v>5221</v>
+        <v>5237</v>
       </c>
       <c r="D600" t="n">
-        <v>1655</v>
+        <v>1657</v>
       </c>
       <c r="E600" t="n">
-        <v>15853586</v>
+        <v>15935385</v>
       </c>
       <c r="F600" t="inlineStr">
         <is>
@@ -30984,13 +30984,13 @@
         </is>
       </c>
       <c r="C601" t="n">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="D601" t="n">
         <v>268</v>
       </c>
       <c r="E601" t="n">
-        <v>1306745</v>
+        <v>1312741</v>
       </c>
       <c r="F601" t="inlineStr">
         <is>
@@ -31035,13 +31035,13 @@
         </is>
       </c>
       <c r="C602" t="n">
-        <v>921</v>
+        <v>924</v>
       </c>
       <c r="D602" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E602" t="n">
-        <v>2120179</v>
+        <v>2124941</v>
       </c>
       <c r="F602" t="inlineStr">
         <is>
@@ -31086,13 +31086,13 @@
         </is>
       </c>
       <c r="C603" t="n">
-        <v>11516</v>
+        <v>11549</v>
       </c>
       <c r="D603" t="n">
-        <v>3783</v>
+        <v>3790</v>
       </c>
       <c r="E603" t="n">
-        <v>18016010</v>
+        <v>18093013</v>
       </c>
       <c r="F603" t="inlineStr">
         <is>
@@ -31137,13 +31137,13 @@
         </is>
       </c>
       <c r="C604" t="n">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D604" t="n">
         <v>29</v>
       </c>
       <c r="E604" t="n">
-        <v>425963</v>
+        <v>428963</v>
       </c>
       <c r="F604" t="inlineStr">
         <is>
@@ -31188,13 +31188,13 @@
         </is>
       </c>
       <c r="C605" t="n">
-        <v>4339</v>
+        <v>4361</v>
       </c>
       <c r="D605" t="n">
-        <v>1388</v>
+        <v>1392</v>
       </c>
       <c r="E605" t="n">
-        <v>12531959</v>
+        <v>12633476</v>
       </c>
       <c r="F605" t="inlineStr">
         <is>
@@ -31290,13 +31290,13 @@
         </is>
       </c>
       <c r="C607" t="n">
-        <v>2239</v>
+        <v>2248</v>
       </c>
       <c r="D607" t="n">
         <v>685</v>
       </c>
       <c r="E607" t="n">
-        <v>6582351</v>
+        <v>6636645</v>
       </c>
       <c r="F607" t="inlineStr">
         <is>
@@ -31341,13 +31341,13 @@
         </is>
       </c>
       <c r="C608" t="n">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D608" t="n">
         <v>182</v>
       </c>
       <c r="E608" t="n">
-        <v>657989</v>
+        <v>664800</v>
       </c>
       <c r="F608" t="inlineStr">
         <is>
@@ -31494,13 +31494,13 @@
         </is>
       </c>
       <c r="C611" t="n">
-        <v>5759</v>
+        <v>5779</v>
       </c>
       <c r="D611" t="n">
-        <v>1795</v>
+        <v>1800</v>
       </c>
       <c r="E611" t="n">
-        <v>8452722</v>
+        <v>8491836</v>
       </c>
       <c r="F611" t="inlineStr">
         <is>
@@ -31596,13 +31596,13 @@
         </is>
       </c>
       <c r="C613" t="n">
-        <v>1252</v>
+        <v>1259</v>
       </c>
       <c r="D613" t="n">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="E613" t="n">
-        <v>3376122</v>
+        <v>3398911</v>
       </c>
       <c r="F613" t="inlineStr">
         <is>
@@ -31698,13 +31698,13 @@
         </is>
       </c>
       <c r="C615" t="n">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="D615" t="n">
         <v>219</v>
       </c>
       <c r="E615" t="n">
-        <v>1939055</v>
+        <v>1952055</v>
       </c>
       <c r="F615" t="inlineStr">
         <is>
@@ -31800,13 +31800,13 @@
         </is>
       </c>
       <c r="C617" t="n">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D617" t="n">
         <v>70</v>
       </c>
       <c r="E617" t="n">
-        <v>482946</v>
+        <v>493612</v>
       </c>
       <c r="F617" t="inlineStr">
         <is>
@@ -31851,13 +31851,13 @@
         </is>
       </c>
       <c r="C618" t="n">
-        <v>13913</v>
+        <v>13956</v>
       </c>
       <c r="D618" t="n">
-        <v>4444</v>
+        <v>4447</v>
       </c>
       <c r="E618" t="n">
-        <v>21186989</v>
+        <v>21283366</v>
       </c>
       <c r="F618" t="inlineStr">
         <is>
@@ -32055,13 +32055,13 @@
         </is>
       </c>
       <c r="C622" t="n">
-        <v>5587</v>
+        <v>5599</v>
       </c>
       <c r="D622" t="n">
-        <v>1802</v>
+        <v>1804</v>
       </c>
       <c r="E622" t="n">
-        <v>16101491</v>
+        <v>16207479</v>
       </c>
       <c r="F622" t="inlineStr">
         <is>
@@ -32106,13 +32106,13 @@
         </is>
       </c>
       <c r="C623" t="n">
-        <v>1303</v>
+        <v>1310</v>
       </c>
       <c r="D623" t="n">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="E623" t="n">
-        <v>3725510</v>
+        <v>3779719</v>
       </c>
       <c r="F623" t="inlineStr">
         <is>
@@ -32157,13 +32157,13 @@
         </is>
       </c>
       <c r="C624" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D624" t="n">
         <v>102</v>
       </c>
       <c r="E624" t="n">
-        <v>350931</v>
+        <v>352431</v>
       </c>
       <c r="F624" t="inlineStr">
         <is>
@@ -32208,13 +32208,13 @@
         </is>
       </c>
       <c r="C625" t="n">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D625" t="n">
         <v>157</v>
       </c>
       <c r="E625" t="n">
-        <v>1161188</v>
+        <v>1164896</v>
       </c>
       <c r="F625" t="inlineStr">
         <is>
@@ -32259,13 +32259,13 @@
         </is>
       </c>
       <c r="C626" t="n">
-        <v>29012</v>
+        <v>29096</v>
       </c>
       <c r="D626" t="n">
-        <v>9034</v>
+        <v>9040</v>
       </c>
       <c r="E626" t="n">
-        <v>42706259</v>
+        <v>42897464</v>
       </c>
       <c r="F626" t="inlineStr">
         <is>
@@ -32463,13 +32463,13 @@
         </is>
       </c>
       <c r="C630" t="n">
-        <v>9172</v>
+        <v>9209</v>
       </c>
       <c r="D630" t="n">
-        <v>2818</v>
+        <v>2821</v>
       </c>
       <c r="E630" t="n">
-        <v>25191500</v>
+        <v>25394330</v>
       </c>
       <c r="F630" t="inlineStr">
         <is>
@@ -32565,13 +32565,13 @@
         </is>
       </c>
       <c r="C632" t="n">
-        <v>3894</v>
+        <v>3902</v>
       </c>
       <c r="D632" t="n">
-        <v>1159</v>
+        <v>1161</v>
       </c>
       <c r="E632" t="n">
-        <v>11191386</v>
+        <v>11248148</v>
       </c>
       <c r="F632" t="inlineStr">
         <is>
@@ -32616,13 +32616,13 @@
         </is>
       </c>
       <c r="C633" t="n">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D633" t="n">
         <v>203</v>
       </c>
       <c r="E633" t="n">
-        <v>951537</v>
+        <v>953037</v>
       </c>
       <c r="F633" t="inlineStr">
         <is>
@@ -32667,13 +32667,13 @@
         </is>
       </c>
       <c r="C634" t="n">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D634" t="n">
         <v>163</v>
       </c>
       <c r="E634" t="n">
-        <v>1231094</v>
+        <v>1232594</v>
       </c>
       <c r="F634" t="inlineStr">
         <is>
@@ -32718,13 +32718,13 @@
         </is>
       </c>
       <c r="C635" t="n">
-        <v>112790</v>
+        <v>113028</v>
       </c>
       <c r="D635" t="n">
-        <v>34851</v>
+        <v>34873</v>
       </c>
       <c r="E635" t="n">
-        <v>169823573</v>
+        <v>170487011</v>
       </c>
       <c r="F635" t="inlineStr">
         <is>
@@ -33024,13 +33024,13 @@
         </is>
       </c>
       <c r="C641" t="n">
-        <v>43403</v>
+        <v>43549</v>
       </c>
       <c r="D641" t="n">
-        <v>13702</v>
+        <v>13717</v>
       </c>
       <c r="E641" t="n">
-        <v>121566147</v>
+        <v>122349953</v>
       </c>
       <c r="F641" t="inlineStr">
         <is>
@@ -33075,13 +33075,13 @@
         </is>
       </c>
       <c r="C642" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D642" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E642" t="n">
-        <v>536862</v>
+        <v>546862</v>
       </c>
       <c r="F642" t="inlineStr">
         <is>
@@ -33126,13 +33126,13 @@
         </is>
       </c>
       <c r="C643" t="n">
-        <v>22559</v>
+        <v>22620</v>
       </c>
       <c r="D643" t="n">
-        <v>6649</v>
+        <v>6658</v>
       </c>
       <c r="E643" t="n">
-        <v>61494340</v>
+        <v>61802838</v>
       </c>
       <c r="F643" t="inlineStr">
         <is>
@@ -33279,13 +33279,13 @@
         </is>
       </c>
       <c r="C646" t="n">
-        <v>3247</v>
+        <v>3264</v>
       </c>
       <c r="D646" t="n">
-        <v>1267</v>
+        <v>1272</v>
       </c>
       <c r="E646" t="n">
-        <v>8037418</v>
+        <v>8142873</v>
       </c>
       <c r="F646" t="inlineStr">
         <is>
@@ -33381,13 +33381,13 @@
         </is>
       </c>
       <c r="C648" t="n">
-        <v>2580</v>
+        <v>2591</v>
       </c>
       <c r="D648" t="n">
         <v>709</v>
       </c>
       <c r="E648" t="n">
-        <v>5849903</v>
+        <v>5901538</v>
       </c>
       <c r="F648" t="inlineStr">
         <is>
@@ -33432,13 +33432,13 @@
         </is>
       </c>
       <c r="C649" t="n">
-        <v>17103</v>
+        <v>17161</v>
       </c>
       <c r="D649" t="n">
-        <v>5227</v>
+        <v>5233</v>
       </c>
       <c r="E649" t="n">
-        <v>25741030</v>
+        <v>25893146</v>
       </c>
       <c r="F649" t="inlineStr">
         <is>
@@ -33534,13 +33534,13 @@
         </is>
       </c>
       <c r="C651" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D651" t="n">
         <v>41</v>
       </c>
       <c r="E651" t="n">
-        <v>482394</v>
+        <v>492394</v>
       </c>
       <c r="F651" t="inlineStr">
         <is>
@@ -33585,13 +33585,13 @@
         </is>
       </c>
       <c r="C652" t="n">
-        <v>6853</v>
+        <v>6880</v>
       </c>
       <c r="D652" t="n">
-        <v>2154</v>
+        <v>2156</v>
       </c>
       <c r="E652" t="n">
-        <v>19745290</v>
+        <v>19895231</v>
       </c>
       <c r="F652" t="inlineStr">
         <is>
@@ -33687,13 +33687,13 @@
         </is>
       </c>
       <c r="C654" t="n">
-        <v>2627</v>
+        <v>2640</v>
       </c>
       <c r="D654" t="n">
-        <v>792</v>
+        <v>796</v>
       </c>
       <c r="E654" t="n">
-        <v>7477636</v>
+        <v>7550531</v>
       </c>
       <c r="F654" t="inlineStr">
         <is>
@@ -33789,13 +33789,13 @@
         </is>
       </c>
       <c r="C656" t="n">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="D656" t="n">
         <v>126</v>
       </c>
       <c r="E656" t="n">
-        <v>1256970</v>
+        <v>1278793</v>
       </c>
       <c r="F656" t="inlineStr">
         <is>
@@ -33840,13 +33840,13 @@
         </is>
       </c>
       <c r="C657" t="n">
-        <v>26443</v>
+        <v>26521</v>
       </c>
       <c r="D657" t="n">
-        <v>8508</v>
+        <v>8514</v>
       </c>
       <c r="E657" t="n">
-        <v>39285228</v>
+        <v>39465519</v>
       </c>
       <c r="F657" t="inlineStr">
         <is>
@@ -34044,13 +34044,13 @@
         </is>
       </c>
       <c r="C661" t="n">
-        <v>11202</v>
+        <v>11251</v>
       </c>
       <c r="D661" t="n">
-        <v>3492</v>
+        <v>3496</v>
       </c>
       <c r="E661" t="n">
-        <v>31810466</v>
+        <v>32065879</v>
       </c>
       <c r="F661" t="inlineStr">
         <is>
@@ -34095,13 +34095,13 @@
         </is>
       </c>
       <c r="C662" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D662" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E662" t="n">
-        <v>65915</v>
+        <v>85915</v>
       </c>
       <c r="F662" t="inlineStr">
         <is>
@@ -34146,13 +34146,13 @@
         </is>
       </c>
       <c r="C663" t="n">
-        <v>3720</v>
+        <v>3733</v>
       </c>
       <c r="D663" t="n">
-        <v>1146</v>
+        <v>1148</v>
       </c>
       <c r="E663" t="n">
-        <v>10606275</v>
+        <v>10670630</v>
       </c>
       <c r="F663" t="inlineStr">
         <is>
@@ -34299,13 +34299,13 @@
         </is>
       </c>
       <c r="C666" t="n">
-        <v>17211</v>
+        <v>17248</v>
       </c>
       <c r="D666" t="n">
-        <v>5426</v>
+        <v>5431</v>
       </c>
       <c r="E666" t="n">
-        <v>25842234</v>
+        <v>25930660</v>
       </c>
       <c r="F666" t="inlineStr">
         <is>
@@ -34452,13 +34452,13 @@
         </is>
       </c>
       <c r="C669" t="n">
-        <v>6855</v>
+        <v>6867</v>
       </c>
       <c r="D669" t="n">
-        <v>2136</v>
+        <v>2138</v>
       </c>
       <c r="E669" t="n">
-        <v>18762242</v>
+        <v>18827121</v>
       </c>
       <c r="F669" t="inlineStr">
         <is>
@@ -34554,13 +34554,13 @@
         </is>
       </c>
       <c r="C671" t="n">
-        <v>2653</v>
+        <v>2660</v>
       </c>
       <c r="D671" t="n">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="E671" t="n">
-        <v>7317560</v>
+        <v>7336502</v>
       </c>
       <c r="F671" t="inlineStr">
         <is>
@@ -34656,13 +34656,13 @@
         </is>
       </c>
       <c r="C673" t="n">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="D673" t="n">
         <v>158</v>
       </c>
       <c r="E673" t="n">
-        <v>1292219</v>
+        <v>1293719</v>
       </c>
       <c r="F673" t="inlineStr">
         <is>
@@ -34707,13 +34707,13 @@
         </is>
       </c>
       <c r="C674" t="n">
-        <v>44906</v>
+        <v>45049</v>
       </c>
       <c r="D674" t="n">
-        <v>14377</v>
+        <v>14384</v>
       </c>
       <c r="E674" t="n">
-        <v>65613734</v>
+        <v>65885240</v>
       </c>
       <c r="F674" t="inlineStr">
         <is>
@@ -34809,13 +34809,13 @@
         </is>
       </c>
       <c r="C676" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D676" t="n">
         <v>75</v>
       </c>
       <c r="E676" t="n">
-        <v>930495</v>
+        <v>940495</v>
       </c>
       <c r="F676" t="inlineStr">
         <is>
@@ -34860,13 +34860,13 @@
         </is>
       </c>
       <c r="C677" t="n">
-        <v>21502</v>
+        <v>21595</v>
       </c>
       <c r="D677" t="n">
-        <v>6616</v>
+        <v>6624</v>
       </c>
       <c r="E677" t="n">
-        <v>62907644</v>
+        <v>63386486</v>
       </c>
       <c r="F677" t="inlineStr">
         <is>
@@ -34962,13 +34962,13 @@
         </is>
       </c>
       <c r="C679" t="n">
-        <v>7662</v>
+        <v>7683</v>
       </c>
       <c r="D679" t="n">
-        <v>2298</v>
+        <v>2302</v>
       </c>
       <c r="E679" t="n">
-        <v>23270011</v>
+        <v>23334496</v>
       </c>
       <c r="F679" t="inlineStr">
         <is>
@@ -35064,13 +35064,13 @@
         </is>
       </c>
       <c r="C681" t="n">
-        <v>1019</v>
+        <v>1022</v>
       </c>
       <c r="D681" t="n">
         <v>437</v>
       </c>
       <c r="E681" t="n">
-        <v>1720171</v>
+        <v>1734506</v>
       </c>
       <c r="F681" t="inlineStr">
         <is>
@@ -35115,13 +35115,13 @@
         </is>
       </c>
       <c r="C682" t="n">
-        <v>1256</v>
+        <v>1258</v>
       </c>
       <c r="D682" t="n">
         <v>352</v>
       </c>
       <c r="E682" t="n">
-        <v>2792027</v>
+        <v>2795794</v>
       </c>
       <c r="F682" t="inlineStr">
         <is>
@@ -35217,13 +35217,13 @@
         </is>
       </c>
       <c r="C684" t="n">
-        <v>18509</v>
+        <v>18574</v>
       </c>
       <c r="D684" t="n">
-        <v>5783</v>
+        <v>5792</v>
       </c>
       <c r="E684" t="n">
-        <v>29506562</v>
+        <v>29666392</v>
       </c>
       <c r="F684" t="inlineStr">
         <is>
@@ -35370,13 +35370,13 @@
         </is>
       </c>
       <c r="C687" t="n">
-        <v>7365</v>
+        <v>7386</v>
       </c>
       <c r="D687" t="n">
-        <v>2416</v>
+        <v>2420</v>
       </c>
       <c r="E687" t="n">
-        <v>20312690</v>
+        <v>20396766</v>
       </c>
       <c r="F687" t="inlineStr">
         <is>
@@ -35472,13 +35472,13 @@
         </is>
       </c>
       <c r="C689" t="n">
-        <v>2006</v>
+        <v>2017</v>
       </c>
       <c r="D689" t="n">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="E689" t="n">
-        <v>5856154</v>
+        <v>5924494</v>
       </c>
       <c r="F689" t="inlineStr">
         <is>
@@ -35625,13 +35625,13 @@
         </is>
       </c>
       <c r="C692" t="n">
-        <v>10431</v>
+        <v>10459</v>
       </c>
       <c r="D692" t="n">
-        <v>3380</v>
+        <v>3382</v>
       </c>
       <c r="E692" t="n">
-        <v>14338655</v>
+        <v>14386068</v>
       </c>
       <c r="F692" t="inlineStr">
         <is>
@@ -35727,13 +35727,13 @@
         </is>
       </c>
       <c r="C694" t="n">
-        <v>2918</v>
+        <v>2924</v>
       </c>
       <c r="D694" t="n">
         <v>912</v>
       </c>
       <c r="E694" t="n">
-        <v>8069915</v>
+        <v>8112081</v>
       </c>
       <c r="F694" t="inlineStr">
         <is>
@@ -35778,13 +35778,13 @@
         </is>
       </c>
       <c r="C695" t="n">
-        <v>1782</v>
+        <v>1790</v>
       </c>
       <c r="D695" t="n">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="E695" t="n">
-        <v>4766629</v>
+        <v>4813654</v>
       </c>
       <c r="F695" t="inlineStr">
         <is>
@@ -35829,13 +35829,13 @@
         </is>
       </c>
       <c r="C696" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D696" t="n">
         <v>89</v>
       </c>
       <c r="E696" t="n">
-        <v>311432</v>
+        <v>314432</v>
       </c>
       <c r="F696" t="inlineStr">
         <is>
@@ -35880,13 +35880,13 @@
         </is>
       </c>
       <c r="C697" t="n">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D697" t="n">
         <v>84</v>
       </c>
       <c r="E697" t="n">
-        <v>614469</v>
+        <v>634469</v>
       </c>
       <c r="F697" t="inlineStr">
         <is>
@@ -35931,13 +35931,13 @@
         </is>
       </c>
       <c r="C698" t="n">
-        <v>25460</v>
+        <v>25520</v>
       </c>
       <c r="D698" t="n">
-        <v>7688</v>
+        <v>7691</v>
       </c>
       <c r="E698" t="n">
-        <v>37434287</v>
+        <v>37581527</v>
       </c>
       <c r="F698" t="inlineStr">
         <is>
@@ -36135,13 +36135,13 @@
         </is>
       </c>
       <c r="C702" t="n">
-        <v>9020</v>
+        <v>9052</v>
       </c>
       <c r="D702" t="n">
-        <v>2700</v>
+        <v>2702</v>
       </c>
       <c r="E702" t="n">
-        <v>25474722</v>
+        <v>25648351</v>
       </c>
       <c r="F702" t="inlineStr">
         <is>
@@ -36237,13 +36237,13 @@
         </is>
       </c>
       <c r="C704" t="n">
-        <v>5614</v>
+        <v>5633</v>
       </c>
       <c r="D704" t="n">
-        <v>1609</v>
+        <v>1613</v>
       </c>
       <c r="E704" t="n">
-        <v>14662317</v>
+        <v>14764742</v>
       </c>
       <c r="F704" t="inlineStr">
         <is>
@@ -36288,13 +36288,13 @@
         </is>
       </c>
       <c r="C705" t="n">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="D705" t="n">
         <v>205</v>
       </c>
       <c r="E705" t="n">
-        <v>1109678</v>
+        <v>1112678</v>
       </c>
       <c r="F705" t="inlineStr">
         <is>
@@ -36339,13 +36339,13 @@
         </is>
       </c>
       <c r="C706" t="n">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="D706" t="n">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E706" t="n">
-        <v>1263670</v>
+        <v>1283670</v>
       </c>
       <c r="F706" t="inlineStr">
         <is>
@@ -36390,13 +36390,13 @@
         </is>
       </c>
       <c r="C707" t="n">
-        <v>17717</v>
+        <v>17761</v>
       </c>
       <c r="D707" t="n">
-        <v>5546</v>
+        <v>5549</v>
       </c>
       <c r="E707" t="n">
-        <v>27809053</v>
+        <v>27932792</v>
       </c>
       <c r="F707" t="inlineStr">
         <is>
@@ -36543,13 +36543,13 @@
         </is>
       </c>
       <c r="C710" t="n">
-        <v>6602</v>
+        <v>6631</v>
       </c>
       <c r="D710" t="n">
-        <v>2063</v>
+        <v>2067</v>
       </c>
       <c r="E710" t="n">
-        <v>18443375</v>
+        <v>18579480</v>
       </c>
       <c r="F710" t="inlineStr">
         <is>
@@ -36645,13 +36645,13 @@
         </is>
       </c>
       <c r="C712" t="n">
-        <v>2182</v>
+        <v>2194</v>
       </c>
       <c r="D712" t="n">
         <v>636</v>
       </c>
       <c r="E712" t="n">
-        <v>6460215</v>
+        <v>6499205</v>
       </c>
       <c r="F712" t="inlineStr">
         <is>
@@ -36696,13 +36696,13 @@
         </is>
       </c>
       <c r="C713" t="n">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="D713" t="n">
         <v>382</v>
       </c>
       <c r="E713" t="n">
-        <v>1160647</v>
+        <v>1162147</v>
       </c>
       <c r="F713" t="inlineStr">
         <is>
@@ -36747,13 +36747,13 @@
         </is>
       </c>
       <c r="C714" t="n">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="D714" t="n">
         <v>140</v>
       </c>
       <c r="E714" t="n">
-        <v>1089805</v>
+        <v>1124625</v>
       </c>
       <c r="F714" t="inlineStr">
         <is>
@@ -36798,13 +36798,13 @@
         </is>
       </c>
       <c r="C715" t="n">
-        <v>50981</v>
+        <v>51180</v>
       </c>
       <c r="D715" t="n">
-        <v>15180</v>
+        <v>15205</v>
       </c>
       <c r="E715" t="n">
-        <v>73734315</v>
+        <v>74150146</v>
       </c>
       <c r="F715" t="inlineStr">
         <is>
@@ -37002,13 +37002,13 @@
         </is>
       </c>
       <c r="C719" t="n">
-        <v>21969</v>
+        <v>22061</v>
       </c>
       <c r="D719" t="n">
-        <v>6614</v>
+        <v>6626</v>
       </c>
       <c r="E719" t="n">
-        <v>59982682</v>
+        <v>60442972</v>
       </c>
       <c r="F719" t="inlineStr">
         <is>
@@ -37053,13 +37053,13 @@
         </is>
       </c>
       <c r="C720" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D720" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E720" t="n">
-        <v>160708</v>
+        <v>170708</v>
       </c>
       <c r="F720" t="inlineStr">
         <is>
@@ -37104,13 +37104,13 @@
         </is>
       </c>
       <c r="C721" t="n">
-        <v>10346</v>
+        <v>10400</v>
       </c>
       <c r="D721" t="n">
-        <v>3076</v>
+        <v>3079</v>
       </c>
       <c r="E721" t="n">
-        <v>27450062</v>
+        <v>27636669</v>
       </c>
       <c r="F721" t="inlineStr">
         <is>
@@ -37155,13 +37155,13 @@
         </is>
       </c>
       <c r="C722" t="n">
-        <v>839</v>
+        <v>845</v>
       </c>
       <c r="D722" t="n">
         <v>285</v>
       </c>
       <c r="E722" t="n">
-        <v>1561237</v>
+        <v>1585506</v>
       </c>
       <c r="F722" t="inlineStr">
         <is>
@@ -37206,13 +37206,13 @@
         </is>
       </c>
       <c r="C723" t="n">
-        <v>1437</v>
+        <v>1444</v>
       </c>
       <c r="D723" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E723" t="n">
-        <v>2893549</v>
+        <v>2909018</v>
       </c>
       <c r="F723" t="inlineStr">
         <is>
@@ -37257,13 +37257,13 @@
         </is>
       </c>
       <c r="C724" t="n">
-        <v>11644</v>
+        <v>11679</v>
       </c>
       <c r="D724" t="n">
-        <v>3683</v>
+        <v>3688</v>
       </c>
       <c r="E724" t="n">
-        <v>17169910</v>
+        <v>17225860</v>
       </c>
       <c r="F724" t="inlineStr">
         <is>
@@ -37359,13 +37359,13 @@
         </is>
       </c>
       <c r="C726" t="n">
-        <v>4265</v>
+        <v>4270</v>
       </c>
       <c r="D726" t="n">
-        <v>1356</v>
+        <v>1358</v>
       </c>
       <c r="E726" t="n">
-        <v>11270934</v>
+        <v>11293523</v>
       </c>
       <c r="F726" t="inlineStr">
         <is>
@@ -37461,13 +37461,13 @@
         </is>
       </c>
       <c r="C728" t="n">
-        <v>1970</v>
+        <v>1978</v>
       </c>
       <c r="D728" t="n">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E728" t="n">
-        <v>5188252</v>
+        <v>5228199</v>
       </c>
       <c r="F728" t="inlineStr">
         <is>
@@ -37512,13 +37512,13 @@
         </is>
       </c>
       <c r="C729" t="n">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="D729" t="n">
         <v>229</v>
       </c>
       <c r="E729" t="n">
-        <v>987299</v>
+        <v>991799</v>
       </c>
       <c r="F729" t="inlineStr">
         <is>
@@ -37563,13 +37563,13 @@
         </is>
       </c>
       <c r="C730" t="n">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="D730" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E730" t="n">
-        <v>1021551</v>
+        <v>1029427</v>
       </c>
       <c r="F730" t="inlineStr">
         <is>
@@ -37614,13 +37614,13 @@
         </is>
       </c>
       <c r="C731" t="n">
-        <v>92542</v>
+        <v>92758</v>
       </c>
       <c r="D731" t="n">
-        <v>27887</v>
+        <v>27903</v>
       </c>
       <c r="E731" t="n">
-        <v>136017954</v>
+        <v>136458536</v>
       </c>
       <c r="F731" t="inlineStr">
         <is>
@@ -37869,13 +37869,13 @@
         </is>
       </c>
       <c r="C736" t="n">
-        <v>35765</v>
+        <v>35847</v>
       </c>
       <c r="D736" t="n">
-        <v>10829</v>
+        <v>10835</v>
       </c>
       <c r="E736" t="n">
-        <v>102080983</v>
+        <v>102416212</v>
       </c>
       <c r="F736" t="inlineStr">
         <is>
@@ -37971,13 +37971,13 @@
         </is>
       </c>
       <c r="C738" t="n">
-        <v>22065</v>
+        <v>22125</v>
       </c>
       <c r="D738" t="n">
-        <v>6367</v>
+        <v>6379</v>
       </c>
       <c r="E738" t="n">
-        <v>58928780</v>
+        <v>59256434</v>
       </c>
       <c r="F738" t="inlineStr">
         <is>
@@ -38073,13 +38073,13 @@
         </is>
       </c>
       <c r="C740" t="n">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="D740" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E740" t="n">
-        <v>1056443</v>
+        <v>1061743</v>
       </c>
       <c r="F740" t="inlineStr">
         <is>
@@ -38124,13 +38124,13 @@
         </is>
       </c>
       <c r="C741" t="n">
-        <v>2876</v>
+        <v>2889</v>
       </c>
       <c r="D741" t="n">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="E741" t="n">
-        <v>6696725</v>
+        <v>6739267</v>
       </c>
       <c r="F741" t="inlineStr">
         <is>
@@ -38175,13 +38175,13 @@
         </is>
       </c>
       <c r="C742" t="n">
-        <v>18255</v>
+        <v>18341</v>
       </c>
       <c r="D742" t="n">
-        <v>5253</v>
+        <v>5261</v>
       </c>
       <c r="E742" t="n">
-        <v>29377295</v>
+        <v>29578929</v>
       </c>
       <c r="F742" t="inlineStr">
         <is>
@@ -38379,13 +38379,13 @@
         </is>
       </c>
       <c r="C746" t="n">
-        <v>7400</v>
+        <v>7435</v>
       </c>
       <c r="D746" t="n">
-        <v>1972</v>
+        <v>1976</v>
       </c>
       <c r="E746" t="n">
-        <v>23914123</v>
+        <v>24119548</v>
       </c>
       <c r="F746" t="inlineStr">
         <is>
@@ -38532,13 +38532,13 @@
         </is>
       </c>
       <c r="C749" t="n">
-        <v>2337</v>
+        <v>2354</v>
       </c>
       <c r="D749" t="n">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="E749" t="n">
-        <v>7783395</v>
+        <v>7859904</v>
       </c>
       <c r="F749" t="inlineStr">
         <is>
@@ -38634,13 +38634,13 @@
         </is>
       </c>
       <c r="C751" t="n">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D751" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E751" t="n">
-        <v>296643</v>
+        <v>300759</v>
       </c>
       <c r="F751" t="inlineStr">
         <is>
@@ -38736,13 +38736,13 @@
         </is>
       </c>
       <c r="C753" t="n">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D753" t="n">
         <v>133</v>
       </c>
       <c r="E753" t="n">
-        <v>1226829</v>
+        <v>1228329</v>
       </c>
       <c r="F753" t="inlineStr">
         <is>
@@ -38787,13 +38787,13 @@
         </is>
       </c>
       <c r="C754" t="n">
-        <v>90244</v>
+        <v>90446</v>
       </c>
       <c r="D754" t="n">
-        <v>27275</v>
+        <v>27284</v>
       </c>
       <c r="E754" t="n">
-        <v>128626008</v>
+        <v>129060489</v>
       </c>
       <c r="F754" t="inlineStr">
         <is>
@@ -38838,13 +38838,13 @@
         </is>
       </c>
       <c r="C755" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D755" t="n">
         <v>26</v>
       </c>
       <c r="E755" t="n">
-        <v>119660</v>
+        <v>125280</v>
       </c>
       <c r="F755" t="inlineStr">
         <is>
@@ -39042,13 +39042,13 @@
         </is>
       </c>
       <c r="C759" t="n">
-        <v>37153</v>
+        <v>37278</v>
       </c>
       <c r="D759" t="n">
-        <v>11125</v>
+        <v>11131</v>
       </c>
       <c r="E759" t="n">
-        <v>104992352</v>
+        <v>105718985</v>
       </c>
       <c r="F759" t="inlineStr">
         <is>
@@ -39093,13 +39093,13 @@
         </is>
       </c>
       <c r="C760" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D760" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E760" t="n">
-        <v>675092</v>
+        <v>684008</v>
       </c>
       <c r="F760" t="inlineStr">
         <is>
@@ -39144,13 +39144,13 @@
         </is>
       </c>
       <c r="C761" t="n">
-        <v>24631</v>
+        <v>24713</v>
       </c>
       <c r="D761" t="n">
-        <v>6966</v>
+        <v>6970</v>
       </c>
       <c r="E761" t="n">
-        <v>66555121</v>
+        <v>66926867</v>
       </c>
       <c r="F761" t="inlineStr">
         <is>
@@ -39195,13 +39195,13 @@
         </is>
       </c>
       <c r="C762" t="n">
-        <v>1385</v>
+        <v>1389</v>
       </c>
       <c r="D762" t="n">
         <v>504</v>
       </c>
       <c r="E762" t="n">
-        <v>2947660</v>
+        <v>2960109</v>
       </c>
       <c r="F762" t="inlineStr">
         <is>
@@ -39246,13 +39246,13 @@
         </is>
       </c>
       <c r="C763" t="n">
-        <v>2759</v>
+        <v>2767</v>
       </c>
       <c r="D763" t="n">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="E763" t="n">
-        <v>6298825</v>
+        <v>6327079</v>
       </c>
       <c r="F763" t="inlineStr">
         <is>
@@ -39297,13 +39297,13 @@
         </is>
       </c>
       <c r="C764" t="n">
-        <v>11798</v>
+        <v>11837</v>
       </c>
       <c r="D764" t="n">
-        <v>3782</v>
+        <v>3786</v>
       </c>
       <c r="E764" t="n">
-        <v>17677708</v>
+        <v>17767416</v>
       </c>
       <c r="F764" t="inlineStr">
         <is>
@@ -39399,13 +39399,13 @@
         </is>
       </c>
       <c r="C766" t="n">
-        <v>4187</v>
+        <v>4199</v>
       </c>
       <c r="D766" t="n">
         <v>1266</v>
       </c>
       <c r="E766" t="n">
-        <v>11100067</v>
+        <v>11175334</v>
       </c>
       <c r="F766" t="inlineStr">
         <is>
@@ -39450,13 +39450,13 @@
         </is>
       </c>
       <c r="C767" t="n">
-        <v>1844</v>
+        <v>1847</v>
       </c>
       <c r="D767" t="n">
         <v>546</v>
       </c>
       <c r="E767" t="n">
-        <v>5564172</v>
+        <v>5584436</v>
       </c>
       <c r="F767" t="inlineStr">
         <is>
@@ -39501,13 +39501,13 @@
         </is>
       </c>
       <c r="C768" t="n">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D768" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E768" t="n">
-        <v>722723</v>
+        <v>725723</v>
       </c>
       <c r="F768" t="inlineStr">
         <is>
@@ -39552,13 +39552,13 @@
         </is>
       </c>
       <c r="C769" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D769" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E769" t="n">
-        <v>742312</v>
+        <v>743812</v>
       </c>
       <c r="F769" t="inlineStr">
         <is>
@@ -39603,13 +39603,13 @@
         </is>
       </c>
       <c r="C770" t="n">
-        <v>5564</v>
+        <v>5582</v>
       </c>
       <c r="D770" t="n">
-        <v>1817</v>
+        <v>1819</v>
       </c>
       <c r="E770" t="n">
-        <v>9091739</v>
+        <v>9125871</v>
       </c>
       <c r="F770" t="inlineStr">
         <is>
@@ -39705,13 +39705,13 @@
         </is>
       </c>
       <c r="C772" t="n">
-        <v>1903</v>
+        <v>1917</v>
       </c>
       <c r="D772" t="n">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E772" t="n">
-        <v>5587520</v>
+        <v>5656385</v>
       </c>
       <c r="F772" t="inlineStr">
         <is>
@@ -39807,13 +39807,13 @@
         </is>
       </c>
       <c r="C774" t="n">
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="D774" t="n">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E774" t="n">
-        <v>1887311</v>
+        <v>1907954</v>
       </c>
       <c r="F774" t="inlineStr">
         <is>
@@ -39858,13 +39858,13 @@
         </is>
       </c>
       <c r="C775" t="n">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D775" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E775" t="n">
-        <v>252975</v>
+        <v>254475</v>
       </c>
       <c r="F775" t="inlineStr">
         <is>
@@ -39960,13 +39960,13 @@
         </is>
       </c>
       <c r="C777" t="n">
-        <v>34230</v>
+        <v>34369</v>
       </c>
       <c r="D777" t="n">
-        <v>10396</v>
+        <v>10411</v>
       </c>
       <c r="E777" t="n">
-        <v>50565622</v>
+        <v>50815350</v>
       </c>
       <c r="F777" t="inlineStr">
         <is>
@@ -40113,13 +40113,13 @@
         </is>
       </c>
       <c r="C780" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D780" t="n">
         <v>24</v>
       </c>
       <c r="E780" t="n">
-        <v>225920</v>
+        <v>235920</v>
       </c>
       <c r="F780" t="inlineStr">
         <is>
@@ -40164,13 +40164,13 @@
         </is>
       </c>
       <c r="C781" t="n">
-        <v>13014</v>
+        <v>13067</v>
       </c>
       <c r="D781" t="n">
-        <v>3901</v>
+        <v>3908</v>
       </c>
       <c r="E781" t="n">
-        <v>37447353</v>
+        <v>37745816</v>
       </c>
       <c r="F781" t="inlineStr">
         <is>
@@ -40266,13 +40266,13 @@
         </is>
       </c>
       <c r="C783" t="n">
-        <v>8289</v>
+        <v>8319</v>
       </c>
       <c r="D783" t="n">
-        <v>2337</v>
+        <v>2345</v>
       </c>
       <c r="E783" t="n">
-        <v>24734227</v>
+        <v>24896530</v>
       </c>
       <c r="F783" t="inlineStr">
         <is>
@@ -40368,13 +40368,13 @@
         </is>
       </c>
       <c r="C785" t="n">
-        <v>560</v>
+        <v>568</v>
       </c>
       <c r="D785" t="n">
         <v>206</v>
       </c>
       <c r="E785" t="n">
-        <v>1004421</v>
+        <v>1037313</v>
       </c>
       <c r="F785" t="inlineStr">
         <is>
@@ -40470,13 +40470,13 @@
         </is>
       </c>
       <c r="C787" t="n">
-        <v>948</v>
+        <v>952</v>
       </c>
       <c r="D787" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E787" t="n">
-        <v>2086442</v>
+        <v>2105991</v>
       </c>
       <c r="F787" t="inlineStr">
         <is>
@@ -40521,13 +40521,13 @@
         </is>
       </c>
       <c r="C788" t="n">
-        <v>22166</v>
+        <v>22222</v>
       </c>
       <c r="D788" t="n">
-        <v>7057</v>
+        <v>7062</v>
       </c>
       <c r="E788" t="n">
-        <v>31110230</v>
+        <v>31237398</v>
       </c>
       <c r="F788" t="inlineStr">
         <is>
@@ -40674,13 +40674,13 @@
         </is>
       </c>
       <c r="C791" t="n">
-        <v>8362</v>
+        <v>8403</v>
       </c>
       <c r="D791" t="n">
-        <v>2740</v>
+        <v>2744</v>
       </c>
       <c r="E791" t="n">
-        <v>22066135</v>
+        <v>22289469</v>
       </c>
       <c r="F791" t="inlineStr">
         <is>
@@ -40776,13 +40776,13 @@
         </is>
       </c>
       <c r="C793" t="n">
-        <v>3995</v>
+        <v>4004</v>
       </c>
       <c r="D793" t="n">
-        <v>1230</v>
+        <v>1232</v>
       </c>
       <c r="E793" t="n">
-        <v>9999014</v>
+        <v>10039516</v>
       </c>
       <c r="F793" t="inlineStr">
         <is>
@@ -40827,13 +40827,13 @@
         </is>
       </c>
       <c r="C794" t="n">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D794" t="n">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E794" t="n">
-        <v>573861</v>
+        <v>575361</v>
       </c>
       <c r="F794" t="inlineStr">
         <is>
@@ -40878,13 +40878,13 @@
         </is>
       </c>
       <c r="C795" t="n">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="D795" t="n">
         <v>192</v>
       </c>
       <c r="E795" t="n">
-        <v>1405302</v>
+        <v>1409298</v>
       </c>
       <c r="F795" t="inlineStr">
         <is>
@@ -40929,13 +40929,13 @@
         </is>
       </c>
       <c r="C796" t="n">
-        <v>14722</v>
+        <v>14773</v>
       </c>
       <c r="D796" t="n">
-        <v>4668</v>
+        <v>4669</v>
       </c>
       <c r="E796" t="n">
-        <v>21282033</v>
+        <v>21405781</v>
       </c>
       <c r="F796" t="inlineStr">
         <is>
@@ -41082,13 +41082,13 @@
         </is>
       </c>
       <c r="C799" t="n">
-        <v>5385</v>
+        <v>5402</v>
       </c>
       <c r="D799" t="n">
-        <v>1783</v>
+        <v>1785</v>
       </c>
       <c r="E799" t="n">
-        <v>14664601</v>
+        <v>14755798</v>
       </c>
       <c r="F799" t="inlineStr">
         <is>
@@ -41133,13 +41133,13 @@
         </is>
       </c>
       <c r="C800" t="n">
-        <v>2506</v>
+        <v>2518</v>
       </c>
       <c r="D800" t="n">
         <v>777</v>
       </c>
       <c r="E800" t="n">
-        <v>6373471</v>
+        <v>6430340</v>
       </c>
       <c r="F800" t="inlineStr">
         <is>
@@ -41286,13 +41286,13 @@
         </is>
       </c>
       <c r="C803" t="n">
-        <v>67256</v>
+        <v>67432</v>
       </c>
       <c r="D803" t="n">
-        <v>21750</v>
+        <v>21764</v>
       </c>
       <c r="E803" t="n">
-        <v>102506532</v>
+        <v>102915858</v>
       </c>
       <c r="F803" t="inlineStr">
         <is>
@@ -41439,13 +41439,13 @@
         </is>
       </c>
       <c r="C806" t="n">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D806" t="n">
         <v>130</v>
       </c>
       <c r="E806" t="n">
-        <v>1668316</v>
+        <v>1668982</v>
       </c>
       <c r="F806" t="inlineStr">
         <is>
@@ -41490,13 +41490,13 @@
         </is>
       </c>
       <c r="C807" t="n">
-        <v>34766</v>
+        <v>34895</v>
       </c>
       <c r="D807" t="n">
-        <v>10980</v>
+        <v>11002</v>
       </c>
       <c r="E807" t="n">
-        <v>100269247</v>
+        <v>100937427</v>
       </c>
       <c r="F807" t="inlineStr">
         <is>
@@ -41541,13 +41541,13 @@
         </is>
       </c>
       <c r="C808" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D808" t="n">
         <v>12</v>
       </c>
       <c r="E808" t="n">
-        <v>365702</v>
+        <v>375702</v>
       </c>
       <c r="F808" t="inlineStr">
         <is>
@@ -41592,13 +41592,13 @@
         </is>
       </c>
       <c r="C809" t="n">
-        <v>10421</v>
+        <v>10465</v>
       </c>
       <c r="D809" t="n">
-        <v>3139</v>
+        <v>3150</v>
       </c>
       <c r="E809" t="n">
-        <v>30713886</v>
+        <v>30934704</v>
       </c>
       <c r="F809" t="inlineStr">
         <is>
@@ -41643,13 +41643,13 @@
         </is>
       </c>
       <c r="C810" t="n">
-        <v>859</v>
+        <v>865</v>
       </c>
       <c r="D810" t="n">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="E810" t="n">
-        <v>1676256</v>
+        <v>1693710</v>
       </c>
       <c r="F810" t="inlineStr">
         <is>
@@ -41694,13 +41694,13 @@
         </is>
       </c>
       <c r="C811" t="n">
-        <v>1800</v>
+        <v>1809</v>
       </c>
       <c r="D811" t="n">
         <v>495</v>
       </c>
       <c r="E811" t="n">
-        <v>4378475</v>
+        <v>4414177</v>
       </c>
       <c r="F811" t="inlineStr">
         <is>
@@ -41745,13 +41745,13 @@
         </is>
       </c>
       <c r="C812" t="n">
-        <v>32954</v>
+        <v>33053</v>
       </c>
       <c r="D812" t="n">
-        <v>10401</v>
+        <v>10410</v>
       </c>
       <c r="E812" t="n">
-        <v>51180066</v>
+        <v>51412175</v>
       </c>
       <c r="F812" t="inlineStr">
         <is>
@@ -41847,13 +41847,13 @@
         </is>
       </c>
       <c r="C814" t="n">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D814" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E814" t="n">
-        <v>1430208</v>
+        <v>1437270</v>
       </c>
       <c r="F814" t="inlineStr">
         <is>
@@ -41898,13 +41898,13 @@
         </is>
       </c>
       <c r="C815" t="n">
-        <v>16412</v>
+        <v>16465</v>
       </c>
       <c r="D815" t="n">
-        <v>5342</v>
+        <v>5349</v>
       </c>
       <c r="E815" t="n">
-        <v>48083025</v>
+        <v>48384771</v>
       </c>
       <c r="F815" t="inlineStr">
         <is>
@@ -42000,13 +42000,13 @@
         </is>
       </c>
       <c r="C817" t="n">
-        <v>4108</v>
+        <v>4122</v>
       </c>
       <c r="D817" t="n">
-        <v>1259</v>
+        <v>1261</v>
       </c>
       <c r="E817" t="n">
-        <v>12125804</v>
+        <v>12210702</v>
       </c>
       <c r="F817" t="inlineStr">
         <is>
@@ -42051,13 +42051,13 @@
         </is>
       </c>
       <c r="C818" t="n">
-        <v>870</v>
+        <v>878</v>
       </c>
       <c r="D818" t="n">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E818" t="n">
-        <v>1773926</v>
+        <v>1810592</v>
       </c>
       <c r="F818" t="inlineStr">
         <is>
@@ -42102,13 +42102,13 @@
         </is>
       </c>
       <c r="C819" t="n">
-        <v>1178</v>
+        <v>1185</v>
       </c>
       <c r="D819" t="n">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E819" t="n">
-        <v>2681104</v>
+        <v>2719874</v>
       </c>
       <c r="F819" t="inlineStr">
         <is>
@@ -42153,13 +42153,13 @@
         </is>
       </c>
       <c r="C820" t="n">
-        <v>10882</v>
+        <v>10916</v>
       </c>
       <c r="D820" t="n">
-        <v>3389</v>
+        <v>3392</v>
       </c>
       <c r="E820" t="n">
-        <v>17594383</v>
+        <v>17657475</v>
       </c>
       <c r="F820" t="inlineStr">
         <is>
@@ -42204,13 +42204,13 @@
         </is>
       </c>
       <c r="C821" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D821" t="n">
         <v>40</v>
       </c>
       <c r="E821" t="n">
-        <v>528306</v>
+        <v>538306</v>
       </c>
       <c r="F821" t="inlineStr">
         <is>
@@ -42255,13 +42255,13 @@
         </is>
       </c>
       <c r="C822" t="n">
-        <v>4961</v>
+        <v>4976</v>
       </c>
       <c r="D822" t="n">
-        <v>1649</v>
+        <v>1654</v>
       </c>
       <c r="E822" t="n">
-        <v>14273477</v>
+        <v>14348216</v>
       </c>
       <c r="F822" t="inlineStr">
         <is>
@@ -42306,13 +42306,13 @@
         </is>
       </c>
       <c r="C823" t="n">
-        <v>1154</v>
+        <v>1162</v>
       </c>
       <c r="D823" t="n">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="E823" t="n">
-        <v>3491982</v>
+        <v>3542768</v>
       </c>
       <c r="F823" t="inlineStr">
         <is>
@@ -42357,13 +42357,13 @@
         </is>
       </c>
       <c r="C824" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D824" t="n">
         <v>88</v>
       </c>
       <c r="E824" t="n">
-        <v>550429</v>
+        <v>556946</v>
       </c>
       <c r="F824" t="inlineStr">
         <is>
@@ -42408,13 +42408,13 @@
         </is>
       </c>
       <c r="C825" t="n">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="D825" t="n">
         <v>119</v>
       </c>
       <c r="E825" t="n">
-        <v>930837</v>
+        <v>950837</v>
       </c>
       <c r="F825" t="inlineStr">
         <is>
@@ -42459,13 +42459,13 @@
         </is>
       </c>
       <c r="C826" t="n">
-        <v>19931</v>
+        <v>19976</v>
       </c>
       <c r="D826" t="n">
-        <v>6182</v>
+        <v>6183</v>
       </c>
       <c r="E826" t="n">
-        <v>31229483</v>
+        <v>31321437</v>
       </c>
       <c r="F826" t="inlineStr">
         <is>
@@ -42561,13 +42561,13 @@
         </is>
       </c>
       <c r="C828" t="n">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D828" t="n">
         <v>64</v>
       </c>
       <c r="E828" t="n">
-        <v>855611</v>
+        <v>874408</v>
       </c>
       <c r="F828" t="inlineStr">
         <is>
@@ -42612,13 +42612,13 @@
         </is>
       </c>
       <c r="C829" t="n">
-        <v>8660</v>
+        <v>8682</v>
       </c>
       <c r="D829" t="n">
-        <v>2784</v>
+        <v>2790</v>
       </c>
       <c r="E829" t="n">
-        <v>24807266</v>
+        <v>24947329</v>
       </c>
       <c r="F829" t="inlineStr">
         <is>
@@ -42714,13 +42714,13 @@
         </is>
       </c>
       <c r="C831" t="n">
-        <v>2449</v>
+        <v>2460</v>
       </c>
       <c r="D831" t="n">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="E831" t="n">
-        <v>7259304</v>
+        <v>7327501</v>
       </c>
       <c r="F831" t="inlineStr">
         <is>
@@ -42816,13 +42816,13 @@
         </is>
       </c>
       <c r="C833" t="n">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D833" t="n">
         <v>143</v>
       </c>
       <c r="E833" t="n">
-        <v>1351834</v>
+        <v>1354924</v>
       </c>
       <c r="F833" t="inlineStr">
         <is>
@@ -42867,13 +42867,13 @@
         </is>
       </c>
       <c r="C834" t="n">
-        <v>28980</v>
+        <v>29047</v>
       </c>
       <c r="D834" t="n">
-        <v>9404</v>
+        <v>9412</v>
       </c>
       <c r="E834" t="n">
-        <v>43852560</v>
+        <v>44038969</v>
       </c>
       <c r="F834" t="inlineStr">
         <is>
@@ -43071,13 +43071,13 @@
         </is>
       </c>
       <c r="C838" t="n">
-        <v>16553</v>
+        <v>16602</v>
       </c>
       <c r="D838" t="n">
-        <v>5484</v>
+        <v>5492</v>
       </c>
       <c r="E838" t="n">
-        <v>48644584</v>
+        <v>48881427</v>
       </c>
       <c r="F838" t="inlineStr">
         <is>
@@ -43173,13 +43173,13 @@
         </is>
       </c>
       <c r="C840" t="n">
-        <v>3753</v>
+        <v>3767</v>
       </c>
       <c r="D840" t="n">
-        <v>1160</v>
+        <v>1163</v>
       </c>
       <c r="E840" t="n">
-        <v>12278363</v>
+        <v>12356161</v>
       </c>
       <c r="F840" t="inlineStr">
         <is>
@@ -43275,13 +43275,13 @@
         </is>
       </c>
       <c r="C842" t="n">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D842" t="n">
         <v>188</v>
       </c>
       <c r="E842" t="n">
-        <v>865444</v>
+        <v>870894</v>
       </c>
       <c r="F842" t="inlineStr">
         <is>
@@ -43326,13 +43326,13 @@
         </is>
       </c>
       <c r="C843" t="n">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="D843" t="n">
         <v>241</v>
       </c>
       <c r="E843" t="n">
-        <v>2050689</v>
+        <v>2065902</v>
       </c>
       <c r="F843" t="inlineStr">
         <is>
@@ -43377,13 +43377,13 @@
         </is>
       </c>
       <c r="C844" t="n">
-        <v>13379</v>
+        <v>13452</v>
       </c>
       <c r="D844" t="n">
-        <v>4070</v>
+        <v>4076</v>
       </c>
       <c r="E844" t="n">
-        <v>20807078</v>
+        <v>20950577</v>
       </c>
       <c r="F844" t="inlineStr">
         <is>
@@ -43581,13 +43581,13 @@
         </is>
       </c>
       <c r="C848" t="n">
-        <v>5352</v>
+        <v>5375</v>
       </c>
       <c r="D848" t="n">
-        <v>1522</v>
+        <v>1524</v>
       </c>
       <c r="E848" t="n">
-        <v>15822559</v>
+        <v>15912558</v>
       </c>
       <c r="F848" t="inlineStr">
         <is>
@@ -43632,13 +43632,13 @@
         </is>
       </c>
       <c r="C849" t="n">
-        <v>2639</v>
+        <v>2649</v>
       </c>
       <c r="D849" t="n">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="E849" t="n">
-        <v>7991942</v>
+        <v>8043013</v>
       </c>
       <c r="F849" t="inlineStr">
         <is>
@@ -43734,13 +43734,13 @@
         </is>
       </c>
       <c r="C851" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D851" t="n">
         <v>86</v>
       </c>
       <c r="E851" t="n">
-        <v>307929</v>
+        <v>308719</v>
       </c>
       <c r="F851" t="inlineStr">
         <is>
@@ -43785,13 +43785,13 @@
         </is>
       </c>
       <c r="C852" t="n">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="D852" t="n">
         <v>120</v>
       </c>
       <c r="E852" t="n">
-        <v>883368</v>
+        <v>897002</v>
       </c>
       <c r="F852" t="inlineStr">
         <is>
@@ -43836,13 +43836,13 @@
         </is>
       </c>
       <c r="C853" t="n">
-        <v>109728</v>
+        <v>109961</v>
       </c>
       <c r="D853" t="n">
-        <v>29834</v>
+        <v>29844</v>
       </c>
       <c r="E853" t="n">
-        <v>167566214</v>
+        <v>168085722</v>
       </c>
       <c r="F853" t="inlineStr">
         <is>
@@ -43938,13 +43938,13 @@
         </is>
       </c>
       <c r="C855" t="n">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D855" t="n">
         <v>37</v>
       </c>
       <c r="E855" t="n">
-        <v>275137</v>
+        <v>285137</v>
       </c>
       <c r="F855" t="inlineStr">
         <is>
@@ -44091,13 +44091,13 @@
         </is>
       </c>
       <c r="C858" t="n">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="D858" t="n">
         <v>130</v>
       </c>
       <c r="E858" t="n">
-        <v>2044814</v>
+        <v>2083637</v>
       </c>
       <c r="F858" t="inlineStr">
         <is>
@@ -44193,13 +44193,13 @@
         </is>
       </c>
       <c r="C860" t="n">
-        <v>45256</v>
+        <v>45405</v>
       </c>
       <c r="D860" t="n">
-        <v>12602</v>
+        <v>12615</v>
       </c>
       <c r="E860" t="n">
-        <v>134953530</v>
+        <v>135697054</v>
       </c>
       <c r="F860" t="inlineStr">
         <is>
@@ -44244,13 +44244,13 @@
         </is>
       </c>
       <c r="C861" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D861" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E861" t="n">
-        <v>688556</v>
+        <v>698556</v>
       </c>
       <c r="F861" t="inlineStr">
         <is>
@@ -44346,13 +44346,13 @@
         </is>
       </c>
       <c r="C863" t="n">
-        <v>32646</v>
+        <v>32734</v>
       </c>
       <c r="D863" t="n">
-        <v>8401</v>
+        <v>8406</v>
       </c>
       <c r="E863" t="n">
-        <v>92869141</v>
+        <v>93327103</v>
       </c>
       <c r="F863" t="inlineStr">
         <is>
@@ -44448,13 +44448,13 @@
         </is>
       </c>
       <c r="C865" t="n">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="D865" t="n">
         <v>259</v>
       </c>
       <c r="E865" t="n">
-        <v>1256963</v>
+        <v>1261463</v>
       </c>
       <c r="F865" t="inlineStr">
         <is>
@@ -44499,13 +44499,13 @@
         </is>
       </c>
       <c r="C866" t="n">
-        <v>1814</v>
+        <v>1817</v>
       </c>
       <c r="D866" t="n">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E866" t="n">
-        <v>4211402</v>
+        <v>4237882</v>
       </c>
       <c r="F866" t="inlineStr">
         <is>
@@ -44550,13 +44550,13 @@
         </is>
       </c>
       <c r="C867" t="n">
-        <v>136180</v>
+        <v>136614</v>
       </c>
       <c r="D867" t="n">
-        <v>39259</v>
+        <v>39294</v>
       </c>
       <c r="E867" t="n">
-        <v>206114043</v>
+        <v>206966664</v>
       </c>
       <c r="F867" t="inlineStr">
         <is>
@@ -44652,13 +44652,13 @@
         </is>
       </c>
       <c r="C869" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D869" t="n">
         <v>33</v>
       </c>
       <c r="E869" t="n">
-        <v>291094</v>
+        <v>295489</v>
       </c>
       <c r="F869" t="inlineStr">
         <is>
@@ -44805,13 +44805,13 @@
         </is>
       </c>
       <c r="C872" t="n">
-        <v>716</v>
+        <v>723</v>
       </c>
       <c r="D872" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E872" t="n">
-        <v>3001580</v>
+        <v>3055406</v>
       </c>
       <c r="F872" t="inlineStr">
         <is>
@@ -44907,13 +44907,13 @@
         </is>
       </c>
       <c r="C874" t="n">
-        <v>58666</v>
+        <v>58868</v>
       </c>
       <c r="D874" t="n">
-        <v>16947</v>
+        <v>16969</v>
       </c>
       <c r="E874" t="n">
-        <v>167082435</v>
+        <v>168128938</v>
       </c>
       <c r="F874" t="inlineStr">
         <is>
@@ -45060,13 +45060,13 @@
         </is>
       </c>
       <c r="C877" t="n">
-        <v>46614</v>
+        <v>46810</v>
       </c>
       <c r="D877" t="n">
-        <v>12660</v>
+        <v>12684</v>
       </c>
       <c r="E877" t="n">
-        <v>128697712</v>
+        <v>129650820</v>
       </c>
       <c r="F877" t="inlineStr">
         <is>
@@ -45111,13 +45111,13 @@
         </is>
       </c>
       <c r="C878" t="n">
-        <v>1010</v>
+        <v>1013</v>
       </c>
       <c r="D878" t="n">
         <v>366</v>
       </c>
       <c r="E878" t="n">
-        <v>1921502</v>
+        <v>1936667</v>
       </c>
       <c r="F878" t="inlineStr">
         <is>
@@ -45162,13 +45162,13 @@
         </is>
       </c>
       <c r="C879" t="n">
-        <v>4283</v>
+        <v>4304</v>
       </c>
       <c r="D879" t="n">
-        <v>1062</v>
+        <v>1065</v>
       </c>
       <c r="E879" t="n">
-        <v>10280983</v>
+        <v>10383613</v>
       </c>
       <c r="F879" t="inlineStr">
         <is>
@@ -45213,13 +45213,13 @@
         </is>
       </c>
       <c r="C880" t="n">
-        <v>18662</v>
+        <v>18744</v>
       </c>
       <c r="D880" t="n">
-        <v>5236</v>
+        <v>5242</v>
       </c>
       <c r="E880" t="n">
-        <v>30218689</v>
+        <v>30450197</v>
       </c>
       <c r="F880" t="inlineStr">
         <is>
@@ -45417,13 +45417,13 @@
         </is>
       </c>
       <c r="C884" t="n">
-        <v>6533</v>
+        <v>6572</v>
       </c>
       <c r="D884" t="n">
-        <v>1852</v>
+        <v>1854</v>
       </c>
       <c r="E884" t="n">
-        <v>22646594</v>
+        <v>22931058</v>
       </c>
       <c r="F884" t="inlineStr">
         <is>
@@ -45519,13 +45519,13 @@
         </is>
       </c>
       <c r="C886" t="n">
-        <v>2299</v>
+        <v>2305</v>
       </c>
       <c r="D886" t="n">
         <v>600</v>
       </c>
       <c r="E886" t="n">
-        <v>7628146</v>
+        <v>7656642</v>
       </c>
       <c r="F886" t="inlineStr">
         <is>
@@ -45621,13 +45621,13 @@
         </is>
       </c>
       <c r="C888" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D888" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E888" t="n">
-        <v>113598</v>
+        <v>121870</v>
       </c>
       <c r="F888" t="inlineStr">
         <is>
@@ -45723,13 +45723,13 @@
         </is>
       </c>
       <c r="C890" t="n">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D890" t="n">
         <v>109</v>
       </c>
       <c r="E890" t="n">
-        <v>1018390</v>
+        <v>1028390</v>
       </c>
       <c r="F890" t="inlineStr">
         <is>
@@ -45774,13 +45774,13 @@
         </is>
       </c>
       <c r="C891" t="n">
-        <v>86418</v>
+        <v>86734</v>
       </c>
       <c r="D891" t="n">
-        <v>26193</v>
+        <v>26215</v>
       </c>
       <c r="E891" t="n">
-        <v>128047843</v>
+        <v>128725557</v>
       </c>
       <c r="F891" t="inlineStr">
         <is>
@@ -45825,13 +45825,13 @@
         </is>
       </c>
       <c r="C892" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D892" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E892" t="n">
-        <v>129341</v>
+        <v>136548</v>
       </c>
       <c r="F892" t="inlineStr">
         <is>
@@ -45927,13 +45927,13 @@
         </is>
       </c>
       <c r="C894" t="n">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D894" t="n">
         <v>130</v>
       </c>
       <c r="E894" t="n">
-        <v>1756266</v>
+        <v>1760415</v>
       </c>
       <c r="F894" t="inlineStr">
         <is>
@@ -45978,13 +45978,13 @@
         </is>
       </c>
       <c r="C895" t="n">
-        <v>31195</v>
+        <v>31325</v>
       </c>
       <c r="D895" t="n">
-        <v>9700</v>
+        <v>9724</v>
       </c>
       <c r="E895" t="n">
-        <v>89639210</v>
+        <v>90312356</v>
       </c>
       <c r="F895" t="inlineStr">
         <is>
@@ -46080,13 +46080,13 @@
         </is>
       </c>
       <c r="C897" t="n">
-        <v>22072</v>
+        <v>22149</v>
       </c>
       <c r="D897" t="n">
-        <v>6502</v>
+        <v>6515</v>
       </c>
       <c r="E897" t="n">
-        <v>61207342</v>
+        <v>61607918</v>
       </c>
       <c r="F897" t="inlineStr">
         <is>
@@ -46182,13 +46182,13 @@
         </is>
       </c>
       <c r="C899" t="n">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="D899" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E899" t="n">
-        <v>1541795</v>
+        <v>1550692</v>
       </c>
       <c r="F899" t="inlineStr">
         <is>
@@ -46233,13 +46233,13 @@
         </is>
       </c>
       <c r="C900" t="n">
-        <v>1491</v>
+        <v>1497</v>
       </c>
       <c r="D900" t="n">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="E900" t="n">
-        <v>3274150</v>
+        <v>3300756</v>
       </c>
       <c r="F900" t="inlineStr">
         <is>
@@ -46284,13 +46284,13 @@
         </is>
       </c>
       <c r="C901" t="n">
-        <v>44138</v>
+        <v>44297</v>
       </c>
       <c r="D901" t="n">
-        <v>13074</v>
+        <v>13096</v>
       </c>
       <c r="E901" t="n">
-        <v>65474971</v>
+        <v>65793918</v>
       </c>
       <c r="F901" t="inlineStr">
         <is>
@@ -46437,13 +46437,13 @@
         </is>
       </c>
       <c r="C904" t="n">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D904" t="n">
         <v>50</v>
       </c>
       <c r="E904" t="n">
-        <v>651525</v>
+        <v>660325</v>
       </c>
       <c r="F904" t="inlineStr">
         <is>
@@ -46488,13 +46488,13 @@
         </is>
       </c>
       <c r="C905" t="n">
-        <v>17710</v>
+        <v>17781</v>
       </c>
       <c r="D905" t="n">
-        <v>5195</v>
+        <v>5202</v>
       </c>
       <c r="E905" t="n">
-        <v>49780740</v>
+        <v>50151675</v>
       </c>
       <c r="F905" t="inlineStr">
         <is>
@@ -46590,13 +46590,13 @@
         </is>
       </c>
       <c r="C907" t="n">
-        <v>10994</v>
+        <v>11038</v>
       </c>
       <c r="D907" t="n">
-        <v>3126</v>
+        <v>3132</v>
       </c>
       <c r="E907" t="n">
-        <v>30550510</v>
+        <v>30746093</v>
       </c>
       <c r="F907" t="inlineStr">
         <is>
@@ -46692,13 +46692,13 @@
         </is>
       </c>
       <c r="C909" t="n">
-        <v>1249</v>
+        <v>1251</v>
       </c>
       <c r="D909" t="n">
         <v>306</v>
       </c>
       <c r="E909" t="n">
-        <v>2788273</v>
+        <v>2795972</v>
       </c>
       <c r="F909" t="inlineStr">
         <is>
